--- a/Experiments/Part2-Mix/Mix-PeerPop-peerSim.xlsx
+++ b/Experiments/Part2-Mix/Mix-PeerPop-peerSim.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="200" windowWidth="28280" windowHeight="17360" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -657,20 +657,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2107436536"/>
-        <c:axId val="2107439112"/>
+        <c:axId val="2112279544"/>
+        <c:axId val="2112406440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2107436536"/>
+        <c:axId val="2112279544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107439112"/>
+        <c:crossAx val="2112406440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -678,18 +697,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107439112"/>
+        <c:axId val="2112406440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107436536"/>
+        <c:crossAx val="2112279544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1277,20 +1315,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2136748520"/>
-        <c:axId val="-2136771672"/>
+        <c:axId val="2112363912"/>
+        <c:axId val="2112557944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2136748520"/>
+        <c:axId val="2112363912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136771672"/>
+        <c:crossAx val="2112557944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1298,18 +1355,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2136771672"/>
+        <c:axId val="2112557944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136748520"/>
+        <c:crossAx val="2112363912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1897,20 +1973,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2134653112"/>
-        <c:axId val="2134667432"/>
+        <c:axId val="2112204600"/>
+        <c:axId val="2112478568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2134653112"/>
+        <c:axId val="2112204600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134667432"/>
+        <c:crossAx val="2112478568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1918,18 +2013,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134667432"/>
+        <c:axId val="2112478568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Document Likes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134653112"/>
+        <c:crossAx val="2112204600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2517,20 +2631,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2109367480"/>
-        <c:axId val="2109340360"/>
+        <c:axId val="2112855208"/>
+        <c:axId val="2112138008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2109367480"/>
+        <c:axId val="2112855208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109340360"/>
+        <c:crossAx val="2112138008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2538,18 +2671,42 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109340360"/>
+        <c:axId val="2112138008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Document Likes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109367480"/>
+        <c:crossAx val="2112855208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2665,8 +2822,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
@@ -2674,7 +2831,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3020,8 +3177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView tabSelected="1" topLeftCell="K6" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Experiments/Part2-Mix/Mix-PeerPop-peerSim.xlsx
+++ b/Experiments/Part2-Mix/Mix-PeerPop-peerSim.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Setting1</t>
-  </si>
-  <si>
-    <t>Taste1(avg)</t>
-  </si>
-  <si>
-    <t>Taste0(avg)</t>
   </si>
   <si>
     <t>Setting2</t>
@@ -36,24 +30,35 @@
     <t>Setting1-docLikes</t>
   </si>
   <si>
-    <t>Settin2-doclikes</t>
+    <t>Tag1(avg)</t>
+  </si>
+  <si>
+    <t>Tag0(avg)</t>
+  </si>
+  <si>
+    <t>Tag 1(avg)</t>
+  </si>
+  <si>
+    <t>Tag 0 (avg)</t>
+  </si>
+  <si>
+    <t>Setting2-docLikes</t>
+  </si>
+  <si>
+    <t>Taste 1(avg)</t>
+  </si>
+  <si>
+    <t>Taste 0 (avg)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -79,9 +84,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -116,11 +120,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$A$2</c:f>
+              <c:f>Sheet1!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting1 Taste1(avg)</c:v>
+                  <c:v>Taste 1(avg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -130,246 +134,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$85</c:f>
+              <c:f>Sheet1!$A$3:$A$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>5.914285714</c:v>
+                  <c:v>5.419047619047614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.3702381</c:v>
+                  <c:v>8.16666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.70595238</c:v>
+                  <c:v>12.71904761904759</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.34047619</c:v>
+                  <c:v>15.69999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.68690476</c:v>
+                  <c:v>17.85714285714285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.55238095</c:v>
+                  <c:v>17.91904761904763</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.8702381</c:v>
+                  <c:v>15.82857142857144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.73571429</c:v>
+                  <c:v>13.33809523809525</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.47380952</c:v>
+                  <c:v>10.83809523809525</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.08214286</c:v>
+                  <c:v>8.33809523809525</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.01547619</c:v>
+                  <c:v>5.83809523809525</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.04404762</c:v>
+                  <c:v>3.33809523809525</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.06190476</c:v>
+                  <c:v>0.83809523809525</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.12261905</c:v>
+                  <c:v>-1.66190476190475</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.23095238</c:v>
+                  <c:v>-4.161904761904751</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.91547619</c:v>
+                  <c:v>-6.661904761904749</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.83095238</c:v>
+                  <c:v>-9.161904761904748</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.96428571</c:v>
+                  <c:v>-10.43333333333332</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.49047619</c:v>
+                  <c:v>-11.21904761904761</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16.62738095</c:v>
+                  <c:v>-11.73333333333332</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18.73333333</c:v>
+                  <c:v>-12.92857142857142</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.44404762</c:v>
+                  <c:v>-14.5047619047619</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.98095238</c:v>
+                  <c:v>-16.9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21.44047619</c:v>
+                  <c:v>-19.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>22.88095238</c:v>
+                  <c:v>-21.7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25.96904762</c:v>
+                  <c:v>-24.2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28.36309524</c:v>
+                  <c:v>-26.3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29.81547619</c:v>
+                  <c:v>-28.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>31.40833333</c:v>
+                  <c:v>-30.9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>32.85</c:v>
+                  <c:v>-33.2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>34.55952381</c:v>
+                  <c:v>-35.1095238095238</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>36.11785714</c:v>
+                  <c:v>-37.4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37.74285714</c:v>
+                  <c:v>-39.3047619047619</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40.26547619</c:v>
+                  <c:v>-41.2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43.12738095</c:v>
+                  <c:v>-42.50476190476191</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>46.46309524</c:v>
+                  <c:v>-44.4095238095238</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>50.10952381</c:v>
+                  <c:v>-45.1047619047619</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>53.58928571</c:v>
+                  <c:v>-46.2047619047619</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>57.18809524</c:v>
+                  <c:v>-47.51428571428571</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>60.77380952</c:v>
+                  <c:v>-48.6095238095238</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>63.73214286</c:v>
+                  <c:v>-47.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>66.61547619</c:v>
+                  <c:v>-48.2047619047619</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>69.41547619000001</c:v>
+                  <c:v>-47.3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>73.25714286</c:v>
+                  <c:v>-47.0095238095238</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>78.33809524</c:v>
+                  <c:v>-44.7095238095238</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>82.7702381</c:v>
+                  <c:v>-40.4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>87.53571429</c:v>
+                  <c:v>-37.9</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>94.36309524</c:v>
+                  <c:v>-32.4047619047619</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>100.5595238</c:v>
+                  <c:v>-28.1</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>106.3964286</c:v>
+                  <c:v>-22.4</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>113.1797619</c:v>
+                  <c:v>-15.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>119.9583333</c:v>
+                  <c:v>-8.6</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>126.7535714</c:v>
+                  <c:v>-1.7</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>133.5464286</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>140.922619</c:v>
+                  <c:v>12.7</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>147.672619</c:v>
+                  <c:v>20.2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>154.4642857</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>161.3261905</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>167.5892857</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>174.325</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>180.872619</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>187.4607143</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>193.827381</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>199.5488095</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>204.325</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>208.227381</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>211.2142857</c:v>
+                  <c:v>102.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>213.2690476</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>214.6821429</c:v>
+                  <c:v>117.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>215.5845238</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>215.6607143</c:v>
+                  <c:v>132.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>215.1369048</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>214.0571429</c:v>
+                  <c:v>147.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>212.5607143</c:v>
+                  <c:v>155.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>211.0559524</c:v>
+                  <c:v>162.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>209.2642857</c:v>
+                  <c:v>170.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>207.2392857</c:v>
+                  <c:v>177.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>204.9880952</c:v>
+                  <c:v>185.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>202.5059524</c:v>
+                  <c:v>192.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -384,11 +388,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$B$2</c:f>
+              <c:f>Sheet1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting1 Taste0(avg)</c:v>
+                  <c:v>Taste 0 (avg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -398,246 +402,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$85</c:f>
+              <c:f>Sheet1!$B$3:$B$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>2.277777778</c:v>
+                  <c:v>2.688888888888885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.336111111</c:v>
+                  <c:v>7.455555555555551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.26388889</c:v>
+                  <c:v>13.67777777777772</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.60555556</c:v>
+                  <c:v>20.46666666666662</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.775</c:v>
+                  <c:v>27.6333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.17777778</c:v>
+                  <c:v>34.93333333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.225</c:v>
+                  <c:v>42.26666666666663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.95</c:v>
+                  <c:v>49.7444444444444</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.12777778</c:v>
+                  <c:v>57.24444444444439</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62.75277778</c:v>
+                  <c:v>64.74444444444438</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70.00833333</c:v>
+                  <c:v>72.24444444444438</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>77.33055555999999</c:v>
+                  <c:v>79.74444444444438</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>83.95555555999999</c:v>
+                  <c:v>87.21111111111106</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>91.01388889</c:v>
+                  <c:v>94.59999999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>98.49444444</c:v>
+                  <c:v>101.8444444444442</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>105.275</c:v>
+                  <c:v>109.0333333333328</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>111.7611111</c:v>
+                  <c:v>116.144444444444</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>118.4833333</c:v>
+                  <c:v>123.0555555555552</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>125.0</c:v>
+                  <c:v>129.8222222222218</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>130.4361111</c:v>
+                  <c:v>136.7555555555552</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>136.9666667</c:v>
+                  <c:v>143.3555555555549</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>143.275</c:v>
+                  <c:v>149.7888888888885</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>150.2222222</c:v>
+                  <c:v>156.1666666666662</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>156.5055556</c:v>
+                  <c:v>162.8777777777772</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>163.4222222</c:v>
+                  <c:v>169.2111111111108</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>169.3388889</c:v>
+                  <c:v>175.2999999999994</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>176.0083333</c:v>
+                  <c:v>181.7777777777773</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>181.5861111</c:v>
+                  <c:v>187.8666666666664</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>188.1583333</c:v>
+                  <c:v>193.9222222222218</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>194.5388889</c:v>
+                  <c:v>200.2111111111107</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>199.9055556</c:v>
+                  <c:v>206.4555555555551</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>205.525</c:v>
+                  <c:v>212.7777777777772</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>211.1222222</c:v>
+                  <c:v>218.4888888888885</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>217.0694444</c:v>
+                  <c:v>223.9444444444439</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>222.3361111</c:v>
+                  <c:v>229.3777777777773</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>228.3194444</c:v>
+                  <c:v>234.644444444444</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>233.3555556</c:v>
+                  <c:v>239.7666666666663</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>238.3361111</c:v>
+                  <c:v>244.3111111111108</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>242.2611111</c:v>
+                  <c:v>249.1555555555551</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>246.4833333</c:v>
+                  <c:v>253.7888888888884</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>251.2138889</c:v>
+                  <c:v>258.1555555555551</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>255.7416667</c:v>
+                  <c:v>262.5999999999997</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>259.6638889</c:v>
+                  <c:v>266.2999999999995</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>263.1333333</c:v>
+                  <c:v>269.5777777777774</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>266.5333333</c:v>
+                  <c:v>271.5222222222218</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>268.425</c:v>
+                  <c:v>272.6666666666661</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>269.6388889</c:v>
+                  <c:v>273.9888888888885</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>270.1861111</c:v>
+                  <c:v>274.5777777777774</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>270.2277778</c:v>
+                  <c:v>274.3777777777773</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>269.9305556</c:v>
+                  <c:v>272.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>269.5694444</c:v>
+                  <c:v>270.8555555555554</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>268.6972222</c:v>
+                  <c:v>268.9333333333332</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>267.5527778</c:v>
+                  <c:v>266.8333333333332</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>265.6916667</c:v>
+                  <c:v>264.7444444444444</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>263.8805556</c:v>
+                  <c:v>262.3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>261.4972222</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>259.4611111</c:v>
+                  <c:v>257.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>257.4277778</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>255.0805556</c:v>
+                  <c:v>252.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>252.7194444</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>250.4861111</c:v>
+                  <c:v>247.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>247.9583333</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>245.5138889</c:v>
+                  <c:v>242.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>243.0416667</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>240.3194444</c:v>
+                  <c:v>237.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>237.8472222</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>235.1666667</c:v>
+                  <c:v>232.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>232.5833333</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>229.7083333</c:v>
+                  <c:v>227.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>227.0694444</c:v>
+                  <c:v>225.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>224.2916667</c:v>
+                  <c:v>222.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>221.5138889</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>218.7777778</c:v>
+                  <c:v>217.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>215.7916667</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>213.0694444</c:v>
+                  <c:v>212.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>210.3611111</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>207.7638889</c:v>
+                  <c:v>207.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>205.0277778</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>202.4861111</c:v>
+                  <c:v>202.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -657,11 +661,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2112279544"/>
-        <c:axId val="2112406440"/>
+        <c:axId val="2110166504"/>
+        <c:axId val="2110172008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2112279544"/>
+        <c:axId val="2110166504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -689,7 +693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112406440"/>
+        <c:crossAx val="2110172008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -697,7 +701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2112406440"/>
+        <c:axId val="2110172008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -727,7 +731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112279544"/>
+        <c:crossAx val="2110166504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -774,11 +778,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1:$E$2</c:f>
+              <c:f>Sheet1!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting2 Taste1(avg)</c:v>
+                  <c:v>Taste 1(avg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -788,246 +792,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$85</c:f>
+              <c:f>Sheet1!$E$3:$E$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>2.623809523809519</c:v>
+                  <c:v>2.419047619047614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.698809523809518</c:v>
+                  <c:v>7.947619047619042</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.02976190476186</c:v>
+                  <c:v>15.01904761904757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.50952380952376</c:v>
+                  <c:v>22.41904761904757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.92976190476186</c:v>
+                  <c:v>29.87619047619042</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.33452380952377</c:v>
+                  <c:v>37.37619047619042</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.77619047619042</c:v>
+                  <c:v>44.87619047619042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.2583333333333</c:v>
+                  <c:v>52.37619047619042</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61.00833333333328</c:v>
+                  <c:v>59.86190476190471</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>68.41904761904758</c:v>
+                  <c:v>67.35714285714282</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.79404761904758</c:v>
+                  <c:v>74.82380952380947</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>83.40119047619043</c:v>
+                  <c:v>82.32380952380947</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.7488095238095</c:v>
+                  <c:v>89.82380952380947</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>98.63809523809499</c:v>
+                  <c:v>97.32380952380947</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>106.1345238095235</c:v>
+                  <c:v>104.8238095238092</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>113.5178571428566</c:v>
+                  <c:v>112.3238095238092</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>120.6523809523804</c:v>
+                  <c:v>119.8238095238092</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>127.6107142857138</c:v>
+                  <c:v>127.3238095238092</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>134.4678571428568</c:v>
+                  <c:v>134.8238095238092</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>141.430952380952</c:v>
+                  <c:v>142.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>148.3154761904757</c:v>
+                  <c:v>149.7619047619044</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>155.1178571428566</c:v>
+                  <c:v>157.1238095238091</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>161.87619047619</c:v>
+                  <c:v>164.47619047619</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>168.830952380952</c:v>
+                  <c:v>171.7142857142853</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>175.65119047619</c:v>
+                  <c:v>178.7904761904757</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>182.296428571428</c:v>
+                  <c:v>185.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>189.205952380952</c:v>
+                  <c:v>192.47619047619</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>196.071428571428</c:v>
+                  <c:v>199.3857142857137</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>202.90119047619</c:v>
+                  <c:v>206.3952380952376</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>209.5488095238091</c:v>
+                  <c:v>213.3761904761901</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>216.088095238095</c:v>
+                  <c:v>220.071428571428</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>222.2583333333329</c:v>
+                  <c:v>226.4999999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>228.45119047619</c:v>
+                  <c:v>233.1809523809517</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>234.7404761904756</c:v>
+                  <c:v>239.3571428571425</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>240.523809523809</c:v>
+                  <c:v>245.7571428571425</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>246.0547619047616</c:v>
+                  <c:v>251.8904761904757</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>251.4952380952377</c:v>
+                  <c:v>257.7428571428566</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>256.8452380952378</c:v>
+                  <c:v>263.7714285714282</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>261.5964285714281</c:v>
+                  <c:v>269.0333333333327</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>265.7249999999996</c:v>
+                  <c:v>274.2666666666663</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>269.2273809523805</c:v>
+                  <c:v>278.8952380952376</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>272.6357142857138</c:v>
+                  <c:v>282.7571428571424</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>275.178571428571</c:v>
+                  <c:v>285.3095238095232</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>276.8726190476186</c:v>
+                  <c:v>286.5857142857137</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>277.5607142857138</c:v>
+                  <c:v>286.023809523809</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>277.2023809523806</c:v>
+                  <c:v>284.2809523809523</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>276.6749999999994</c:v>
+                  <c:v>282.3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>275.6999999999996</c:v>
+                  <c:v>279.8</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>274.3357142857138</c:v>
+                  <c:v>277.4523809523809</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>272.6107142857138</c:v>
+                  <c:v>275.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>270.8797619047612</c:v>
+                  <c:v>272.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>268.8654761904756</c:v>
+                  <c:v>270.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>266.8678571428566</c:v>
+                  <c:v>267.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>264.7452380952376</c:v>
+                  <c:v>265.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>262.6119047619043</c:v>
+                  <c:v>262.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>260.3619047619043</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>257.898809523809</c:v>
+                  <c:v>257.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>255.6095238095232</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>253.02619047619</c:v>
+                  <c:v>252.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>250.5797619047616</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>248.0416666666663</c:v>
+                  <c:v>247.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>245.4940476190472</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>242.9999999999994</c:v>
+                  <c:v>242.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>240.4464285714282</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>237.8511904761899</c:v>
+                  <c:v>237.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>235.3333333333328</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>232.7559523809518</c:v>
+                  <c:v>232.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>230.2797619047616</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>227.7202380952375</c:v>
+                  <c:v>227.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>225.1309523809519</c:v>
+                  <c:v>225.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>222.4880952380947</c:v>
+                  <c:v>222.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>219.9821428571423</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>217.4940476190472</c:v>
+                  <c:v>217.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>214.9880952380947</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>212.4523809523805</c:v>
+                  <c:v>212.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>209.9047619047614</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>207.428571428571</c:v>
+                  <c:v>207.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>204.8333333333328</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>202.303571428571</c:v>
+                  <c:v>202.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -1042,11 +1046,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1:$F$2</c:f>
+              <c:f>Sheet1!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting2 Taste0(avg)</c:v>
+                  <c:v>Taste 0 (avg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1056,246 +1060,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$85</c:f>
+              <c:f>Sheet1!$F$3:$F$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>0.122222222222224</c:v>
+                  <c:v>-0.555555555555552</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.130555555555553</c:v>
+                  <c:v>-2.11111111111111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.369444444444443</c:v>
+                  <c:v>-4.533333333333328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.744444444444434</c:v>
+                  <c:v>-7.03333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9.258333333333308</c:v>
+                  <c:v>-9.533333333333288</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-11.75833333333328</c:v>
+                  <c:v>-12.03333333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-14.29999999999997</c:v>
+                  <c:v>-14.53333333333329</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-16.81388888888885</c:v>
+                  <c:v>-17.03333333333329</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-19.11944444444438</c:v>
+                  <c:v>-19.53333333333329</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-21.68888888888884</c:v>
+                  <c:v>-22.03333333333329</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-24.28611111111106</c:v>
+                  <c:v>-24.53333333333329</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-26.70277777777775</c:v>
+                  <c:v>-27.03333333333328</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-28.78055555555551</c:v>
+                  <c:v>-29.53333333333328</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-30.53333333333328</c:v>
+                  <c:v>-32.03333333333328</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-32.6805555555555</c:v>
+                  <c:v>-34.53333333333328</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-34.81944444444442</c:v>
+                  <c:v>-37.03333333333328</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-37.12222222222218</c:v>
+                  <c:v>-39.53333333333328</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-39.23611111111108</c:v>
+                  <c:v>-42.03333333333327</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-41.52499999999995</c:v>
+                  <c:v>-44.53333333333327</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-43.54999999999995</c:v>
+                  <c:v>-46.87777777777772</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-45.58055555555552</c:v>
+                  <c:v>-48.91111111111105</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-47.09722222222218</c:v>
+                  <c:v>-50.98888888888883</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-48.77777777777773</c:v>
+                  <c:v>-52.84444444444438</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-50.4055555555555</c:v>
+                  <c:v>-53.75555555555551</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-52.14166666666663</c:v>
+                  <c:v>-55.28888888888882</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-54.18055555555552</c:v>
+                  <c:v>-56.61111111111105</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-56.00277777777774</c:v>
+                  <c:v>-58.05555555555552</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-57.61111111111107</c:v>
+                  <c:v>-59.73333333333327</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-59.32499999999995</c:v>
+                  <c:v>-61.42222222222217</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-61.3583333333333</c:v>
+                  <c:v>-63.48888888888884</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-63.07222222222218</c:v>
+                  <c:v>-64.9444444444444</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-64.44722222222218</c:v>
+                  <c:v>-66.29999999999994</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-64.85277777777773</c:v>
+                  <c:v>-67.72222222222218</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-65.40555555555551</c:v>
+                  <c:v>-69.0444444444444</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-66.23333333333329</c:v>
+                  <c:v>-70.56666666666662</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-66.94999999999996</c:v>
+                  <c:v>-71.77777777777774</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-66.95555555555551</c:v>
+                  <c:v>-72.61111111111107</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-66.0944444444444</c:v>
+                  <c:v>-73.51111111111106</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-65.85833333333331</c:v>
+                  <c:v>-73.42222222222218</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-65.09166666666662</c:v>
+                  <c:v>-73.8444444444444</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-63.27499999999995</c:v>
+                  <c:v>-73.65555555555552</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-61.63888888888883</c:v>
+                  <c:v>-72.62222222222218</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-58.41666666666661</c:v>
+                  <c:v>-70.39999999999994</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-54.82499999999995</c:v>
+                  <c:v>-66.5333333333333</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-51.09722222222217</c:v>
+                  <c:v>-61.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-46.3944444444444</c:v>
+                  <c:v>-54.24444444444443</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-40.84166666666663</c:v>
+                  <c:v>-47.3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-34.9444444444444</c:v>
+                  <c:v>-39.8</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-28.07222222222218</c:v>
+                  <c:v>-32.43333333333333</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-20.91388888888885</c:v>
+                  <c:v>-25.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-13.71944444444442</c:v>
+                  <c:v>-17.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-7.063888888888871</c:v>
+                  <c:v>-10.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.752777777777781</c:v>
+                  <c:v>-2.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.961111111111074</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>16.10555555555552</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>23.94444444444442</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>31.06944444444442</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>39.49999999999996</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>46.41666666666664</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>54.12499999999996</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>61.29166666666664</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>68.45833333333329</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>75.99999999999997</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>83.12499999999997</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>89.95833333333326</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>97.33333333333317</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>104.2916666666663</c:v>
+                  <c:v>102.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>111.958333333333</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>119.0416666666664</c:v>
+                  <c:v>117.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>125.9166666666664</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>132.4166666666664</c:v>
+                  <c:v>132.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>139.8749999999998</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>147.458333333333</c:v>
+                  <c:v>147.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>154.9166666666663</c:v>
+                  <c:v>155.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>162.1666666666664</c:v>
+                  <c:v>162.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>169.3333333333331</c:v>
+                  <c:v>170.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>176.9999999999996</c:v>
+                  <c:v>177.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>183.833333333333</c:v>
+                  <c:v>185.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>191.1249999999995</c:v>
+                  <c:v>192.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -1315,11 +1319,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2112363912"/>
-        <c:axId val="2112557944"/>
+        <c:axId val="2099035768"/>
+        <c:axId val="2099044296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2112363912"/>
+        <c:axId val="2099035768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,7 +1351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112557944"/>
+        <c:crossAx val="2099044296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1355,7 +1359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2112557944"/>
+        <c:axId val="2099044296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112363912"/>
+        <c:crossAx val="2099035768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1432,11 +1436,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1:$H$2</c:f>
+              <c:f>Sheet1!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting1-docLikes Taste1(avg)</c:v>
+                  <c:v>Tag1(avg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1446,246 +1450,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$85</c:f>
+              <c:f>Sheet1!$H$3:$H$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>0.8835</c:v>
+                  <c:v>0.8315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5495</c:v>
+                  <c:v>1.3825</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.291</c:v>
+                  <c:v>2.123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8635</c:v>
+                  <c:v>2.6985</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3325</c:v>
+                  <c:v>3.1875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6895</c:v>
+                  <c:v>3.4565</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8805</c:v>
+                  <c:v>3.4995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0235</c:v>
+                  <c:v>3.5005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1085</c:v>
+                  <c:v>3.5005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.242500000000001</c:v>
+                  <c:v>3.5005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.361500000000001</c:v>
+                  <c:v>3.5005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.645</c:v>
+                  <c:v>3.5005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.067500000000001</c:v>
+                  <c:v>3.5005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.431499999999998</c:v>
+                  <c:v>3.5005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.85</c:v>
+                  <c:v>3.5005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.306999999999999</c:v>
+                  <c:v>3.5005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.813</c:v>
+                  <c:v>3.5005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.27</c:v>
+                  <c:v>3.629499999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.673</c:v>
+                  <c:v>3.809499999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.997</c:v>
+                  <c:v>4.017999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.3775</c:v>
+                  <c:v>4.154999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.681999999999998</c:v>
+                  <c:v>4.252</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.080000000000001</c:v>
+                  <c:v>4.263</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.521</c:v>
+                  <c:v>4.284</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.8745</c:v>
+                  <c:v>4.284</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10.309</c:v>
+                  <c:v>4.284</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10.7305</c:v>
+                  <c:v>4.326</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.192</c:v>
+                  <c:v>4.368</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11.5405</c:v>
+                  <c:v>4.368</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.975</c:v>
+                  <c:v>4.389</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12.4225</c:v>
+                  <c:v>4.451</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.931</c:v>
+                  <c:v>4.473</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13.428</c:v>
+                  <c:v>4.5355</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13.99</c:v>
+                  <c:v>4.599</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>14.5275</c:v>
+                  <c:v>4.7245</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>15.046</c:v>
+                  <c:v>4.787000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>15.563</c:v>
+                  <c:v>4.976499999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>16.171</c:v>
+                  <c:v>5.1235</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>16.865</c:v>
+                  <c:v>5.2485</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>17.627</c:v>
+                  <c:v>5.395999999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>18.199</c:v>
+                  <c:v>5.774999999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>18.6975</c:v>
+                  <c:v>5.9635</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>19.2165</c:v>
+                  <c:v>6.320999999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>19.755</c:v>
+                  <c:v>6.614</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>20.4665</c:v>
+                  <c:v>7.117999999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>21.3445</c:v>
+                  <c:v>7.833</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>22.2575</c:v>
+                  <c:v>8.358</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>23.1445</c:v>
+                  <c:v>9.197500000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>23.987</c:v>
+                  <c:v>9.912</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>24.906</c:v>
+                  <c:v>10.773</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>25.8245</c:v>
+                  <c:v>11.76</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>26.7455</c:v>
+                  <c:v>12.747</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>27.622</c:v>
+                  <c:v>13.734</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>28.463</c:v>
+                  <c:v>14.742</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>29.401</c:v>
+                  <c:v>15.771</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>30.272</c:v>
+                  <c:v>16.821</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>31.2215</c:v>
+                  <c:v>17.85</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>32.2285</c:v>
+                  <c:v>18.9</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>33.2325</c:v>
+                  <c:v>19.95</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>34.2085</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>35.071</c:v>
+                  <c:v>22.05</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>35.972</c:v>
+                  <c:v>23.1</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>36.8075</c:v>
+                  <c:v>24.15</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>37.597</c:v>
+                  <c:v>25.2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>38.3365</c:v>
+                  <c:v>26.25</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>39.001</c:v>
+                  <c:v>27.3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>39.6225</c:v>
+                  <c:v>28.35</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>40.154</c:v>
+                  <c:v>29.4</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>40.60950000000001</c:v>
+                  <c:v>30.45</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>40.9905</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>41.283</c:v>
+                  <c:v>32.55</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>41.542</c:v>
+                  <c:v>33.60000000000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>41.738</c:v>
+                  <c:v>34.65</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>41.85</c:v>
+                  <c:v>35.7</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>41.9205</c:v>
+                  <c:v>36.75</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>41.9535</c:v>
+                  <c:v>37.8</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>41.9915</c:v>
+                  <c:v>38.85000000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42.0</c:v>
+                  <c:v>39.9</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42.0</c:v>
+                  <c:v>40.95</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>42.0</c:v>
@@ -1700,11 +1704,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1:$I$2</c:f>
+              <c:f>Sheet1!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting1-docLikes Taste0(avg)</c:v>
+                  <c:v>Tag0(avg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1714,207 +1718,207 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$85</c:f>
+              <c:f>Sheet1!$I$3:$I$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>0.215</c:v>
+                  <c:v>0.2335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5215</c:v>
+                  <c:v>0.5605</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9325</c:v>
+                  <c:v>0.953</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.36</c:v>
+                  <c:v>1.371</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7535</c:v>
+                  <c:v>1.806</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1815</c:v>
+                  <c:v>2.247</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.584</c:v>
+                  <c:v>2.6895</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.036499999999999</c:v>
+                  <c:v>3.1385</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.462000000000001</c:v>
+                  <c:v>3.5885</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.895</c:v>
+                  <c:v>4.0385</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.297999999999999</c:v>
+                  <c:v>4.4885</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.744499999999999</c:v>
+                  <c:v>4.9385</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.216</c:v>
+                  <c:v>5.387</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.679</c:v>
+                  <c:v>5.832000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.117999999999999</c:v>
+                  <c:v>6.2705</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.522499999999999</c:v>
+                  <c:v>6.706500000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.9535</c:v>
+                  <c:v>7.139</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.391499999999999</c:v>
+                  <c:v>7.5625</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.780000000000001</c:v>
+                  <c:v>7.9795</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.130000000000001</c:v>
+                  <c:v>8.404</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.4995</c:v>
+                  <c:v>8.8135</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.9075</c:v>
+                  <c:v>9.215499999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.253499999999998</c:v>
+                  <c:v>9.614999999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.648</c:v>
+                  <c:v>10.0295</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10.022</c:v>
+                  <c:v>10.427</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10.4435</c:v>
+                  <c:v>10.8135</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10.8595</c:v>
+                  <c:v>11.2175</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.23</c:v>
+                  <c:v>11.604</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11.6315</c:v>
+                  <c:v>11.989</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.991</c:v>
+                  <c:v>12.3845</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12.351</c:v>
+                  <c:v>12.778</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.7245</c:v>
+                  <c:v>13.175</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13.0455</c:v>
+                  <c:v>13.5445</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13.456</c:v>
+                  <c:v>13.9025</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13.835</c:v>
+                  <c:v>14.2595</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>14.2205</c:v>
+                  <c:v>14.609</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>14.609</c:v>
+                  <c:v>14.952</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>14.941</c:v>
+                  <c:v>15.269</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>15.2815</c:v>
+                  <c:v>15.5995</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>15.603</c:v>
+                  <c:v>15.9205</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>15.9465</c:v>
+                  <c:v>16.2295</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>16.2455</c:v>
+                  <c:v>16.542</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>16.536</c:v>
+                  <c:v>16.821</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>16.7705</c:v>
+                  <c:v>17.081</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>16.9935</c:v>
+                  <c:v>17.281</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17.1905</c:v>
+                  <c:v>17.445</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>17.3495</c:v>
+                  <c:v>17.617</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>17.491</c:v>
+                  <c:v>17.756</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>17.6005</c:v>
+                  <c:v>17.8595</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>17.706</c:v>
+                  <c:v>17.895</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>17.7915</c:v>
+                  <c:v>17.926</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>17.852</c:v>
+                  <c:v>17.952</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>17.8955</c:v>
+                  <c:v>17.97</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>17.923</c:v>
+                  <c:v>17.9885</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>17.946</c:v>
+                  <c:v>17.991</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>17.96</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>17.9715</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>17.9785</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>17.9835</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>17.987</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>17.9895</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>17.9895</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>17.9895</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>17.9895</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>17.992</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>17.9995</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>18.0</c:v>
@@ -1973,11 +1977,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2112204600"/>
-        <c:axId val="2112478568"/>
+        <c:axId val="2098398216"/>
+        <c:axId val="2110263208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2112204600"/>
+        <c:axId val="2098398216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,7 +2009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112478568"/>
+        <c:crossAx val="2110263208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2013,7 +2017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2112478568"/>
+        <c:axId val="2110263208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2043,7 +2047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112204600"/>
+        <c:crossAx val="2098398216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2090,11 +2094,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1:$K$2</c:f>
+              <c:f>Sheet1!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Settin2-doclikes Taste1(avg)</c:v>
+                  <c:v>Tag 1(avg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2104,192 +2108,192 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$85</c:f>
+              <c:f>Sheet1!$K$3:$K$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>0.538</c:v>
+                  <c:v>0.5165</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.46</c:v>
+                  <c:v>1.3595</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.467</c:v>
+                  <c:v>2.3645</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5275</c:v>
+                  <c:v>3.404</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.545500000000001</c:v>
+                  <c:v>4.4495</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.581</c:v>
+                  <c:v>5.4995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5995</c:v>
+                  <c:v>6.5495</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.649500000000001</c:v>
+                  <c:v>7.599500000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.732</c:v>
+                  <c:v>8.648</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.7955</c:v>
+                  <c:v>9.697500000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.878</c:v>
+                  <c:v>10.744</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.883</c:v>
+                  <c:v>11.794</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.9345</c:v>
+                  <c:v>12.844</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.9735</c:v>
+                  <c:v>13.894</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.964</c:v>
+                  <c:v>14.944</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0015</c:v>
+                  <c:v>15.994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0365</c:v>
+                  <c:v>17.044</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.02</c:v>
+                  <c:v>18.094</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.054</c:v>
+                  <c:v>19.144</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0625</c:v>
+                  <c:v>20.1915</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.054</c:v>
+                  <c:v>21.2375</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0195</c:v>
+                  <c:v>22.273</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22.9895</c:v>
+                  <c:v>23.3075</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.941</c:v>
+                  <c:v>24.33</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24.9125</c:v>
+                  <c:v>25.3355</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25.916</c:v>
+                  <c:v>26.32700000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.8765</c:v>
+                  <c:v>27.2975</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27.8595</c:v>
+                  <c:v>28.2855</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28.8035</c:v>
+                  <c:v>29.284</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.776</c:v>
+                  <c:v>30.2795</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30.724</c:v>
+                  <c:v>31.245</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31.6645</c:v>
+                  <c:v>32.1825</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32.568</c:v>
+                  <c:v>33.1465</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33.486</c:v>
+                  <c:v>34.0575</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34.407</c:v>
+                  <c:v>34.992</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35.25750000000001</c:v>
+                  <c:v>35.8985</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36.137</c:v>
+                  <c:v>36.7755</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>36.954</c:v>
+                  <c:v>37.671</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>37.7125</c:v>
+                  <c:v>38.486</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>38.411</c:v>
+                  <c:v>39.298</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>39.081</c:v>
+                  <c:v>40.0465</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>39.6395</c:v>
+                  <c:v>40.7145</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>40.136</c:v>
+                  <c:v>41.245</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>40.54450000000001</c:v>
+                  <c:v>41.6415</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>40.9125</c:v>
+                  <c:v>41.845</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41.205</c:v>
+                  <c:v>41.9245</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41.395</c:v>
+                  <c:v>41.979</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41.5465</c:v>
+                  <c:v>41.979</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41.662</c:v>
+                  <c:v>41.995</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41.7625</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41.818</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>41.8695</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>41.897</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>41.929</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>41.942</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>41.955</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>41.97</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>41.975</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>41.989</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>41.989</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>41.9935</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>42.0</c:v>
@@ -2358,11 +2362,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1:$L$2</c:f>
+              <c:f>Sheet1!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Settin2-doclikes Taste0(avg)</c:v>
+                  <c:v>Tag 0 (avg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2372,246 +2376,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$85</c:f>
+              <c:f>Sheet1!$L$3:$L$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>0.118</c:v>
+                  <c:v>0.0875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1375</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1375</c:v>
+                  <c:v>0.1335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1375</c:v>
+                  <c:v>0.1335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1375</c:v>
+                  <c:v>0.1335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1375</c:v>
+                  <c:v>0.1335</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1375</c:v>
+                  <c:v>0.1335</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1375</c:v>
+                  <c:v>0.1335</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1375</c:v>
+                  <c:v>0.1335</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1375</c:v>
+                  <c:v>0.1335</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1375</c:v>
+                  <c:v>0.1335</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1415</c:v>
+                  <c:v>0.1335</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.147</c:v>
+                  <c:v>0.1335</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1495</c:v>
+                  <c:v>0.1335</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.167</c:v>
+                  <c:v>0.1335</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.193</c:v>
+                  <c:v>0.1335</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.212</c:v>
+                  <c:v>0.1335</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.23</c:v>
+                  <c:v>0.1335</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2525</c:v>
+                  <c:v>0.1335</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2675</c:v>
+                  <c:v>0.1405</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.292</c:v>
+                  <c:v>0.1615</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.329</c:v>
+                  <c:v>0.1805</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.3475</c:v>
+                  <c:v>0.2095</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.369</c:v>
+                  <c:v>0.281</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.418</c:v>
+                  <c:v>0.3245</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.4655</c:v>
+                  <c:v>0.3775</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.5205</c:v>
+                  <c:v>0.425</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.5735</c:v>
+                  <c:v>0.462</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.609</c:v>
+                  <c:v>0.4985</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6475</c:v>
+                  <c:v>0.518</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.697</c:v>
+                  <c:v>0.565</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.757</c:v>
+                  <c:v>0.6165</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.825</c:v>
+                  <c:v>0.665</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.894</c:v>
+                  <c:v>0.718</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.947</c:v>
+                  <c:v>0.762</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.036</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0845</c:v>
+                  <c:v>0.895</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.17</c:v>
+                  <c:v>0.967</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.306</c:v>
+                  <c:v>1.0835</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.4705</c:v>
+                  <c:v>1.177</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.652</c:v>
+                  <c:v>1.298</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.89</c:v>
+                  <c:v>1.457</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.1435</c:v>
+                  <c:v>1.6695</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.418</c:v>
+                  <c:v>1.956</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.7355</c:v>
+                  <c:v>2.316</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.086</c:v>
+                  <c:v>2.733999999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.421</c:v>
+                  <c:v>3.158999999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.816</c:v>
+                  <c:v>3.609</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.221</c:v>
+                  <c:v>4.052999999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.646000000000001</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.0805</c:v>
+                  <c:v>4.950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.5</c:v>
+                  <c:v>5.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.9445</c:v>
+                  <c:v>5.85</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.395499999999999</c:v>
+                  <c:v>6.299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.847999999999999</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7.290499999999999</c:v>
+                  <c:v>7.200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.753</c:v>
+                  <c:v>7.65</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.183000000000001</c:v>
+                  <c:v>8.099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.588</c:v>
+                  <c:v>8.549999999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9.0155</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.475499999999998</c:v>
+                  <c:v>9.45</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>9.893</c:v>
+                  <c:v>9.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>10.348</c:v>
+                  <c:v>10.35</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10.788</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>11.2775</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>11.7</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>12.1625</c:v>
+                  <c:v>12.15</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>12.595</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>13.0725</c:v>
+                  <c:v>13.05</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>13.52</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>13.9625</c:v>
+                  <c:v>13.95</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>14.3525</c:v>
+                  <c:v>14.4</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>14.8075</c:v>
+                  <c:v>14.85</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>15.2125</c:v>
+                  <c:v>15.3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>15.65</c:v>
+                  <c:v>15.75</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>16.0875</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>16.575</c:v>
+                  <c:v>16.65</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>17.0425</c:v>
+                  <c:v>17.1</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>17.5325</c:v>
+                  <c:v>17.55</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>18.0</c:v>
@@ -2631,11 +2635,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2112855208"/>
-        <c:axId val="2112138008"/>
+        <c:axId val="2110687800"/>
+        <c:axId val="2110693288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2112855208"/>
+        <c:axId val="2110687800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2663,7 +2667,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112138008"/>
+        <c:crossAx val="2110693288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2671,7 +2675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2112138008"/>
+        <c:axId val="2110693288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2706,7 +2710,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112855208"/>
+        <c:crossAx val="2110687800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2792,16 +2796,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3177,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K6" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView tabSelected="1" topLeftCell="L6" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3188,1772 +3192,1772 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1</v>
-      </c>
       <c r="L2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1">
-        <v>5.914285714</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.2777777779999999</v>
+      <c r="A3">
+        <v>5.419047619047614</v>
+      </c>
+      <c r="B3">
+        <v>2.6888888888888851</v>
       </c>
       <c r="E3">
-        <v>2.6238095238095189</v>
+        <v>2.4190476190476136</v>
       </c>
       <c r="F3">
-        <v>0.12222222222222427</v>
+        <v>-0.55555555555555247</v>
       </c>
       <c r="H3">
-        <v>0.88349999999999995</v>
+        <v>0.83149999999999991</v>
       </c>
       <c r="I3">
-        <v>0.215</v>
+        <v>0.23349999999999999</v>
       </c>
       <c r="K3">
-        <v>0.53800000000000003</v>
+        <v>0.51650000000000007</v>
       </c>
       <c r="L3">
-        <v>0.11800000000000002</v>
+        <v>8.7499999999999994E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="1">
-        <v>10.3702381</v>
-      </c>
-      <c r="B4" s="1">
-        <v>6.3361111110000001</v>
+      <c r="A4">
+        <v>8.1666666666666323</v>
+      </c>
+      <c r="B4">
+        <v>7.4555555555555513</v>
       </c>
       <c r="E4">
-        <v>8.6988095238095191</v>
+        <v>7.9476190476190425</v>
       </c>
       <c r="F4">
-        <v>-2.1305555555555533</v>
+        <v>-2.1111111111111098</v>
       </c>
       <c r="H4">
-        <v>1.5494999999999997</v>
+        <v>1.3824999999999998</v>
       </c>
       <c r="I4">
-        <v>0.52149999999999996</v>
+        <v>0.5605</v>
       </c>
       <c r="K4">
-        <v>1.4600000000000002</v>
+        <v>1.3594999999999999</v>
       </c>
       <c r="L4">
-        <v>0.13750000000000001</v>
+        <v>0.12999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="1">
-        <v>14.705952379999999</v>
-      </c>
-      <c r="B5" s="1">
-        <v>12.26388889</v>
+      <c r="A5">
+        <v>12.719047619047586</v>
+      </c>
+      <c r="B5">
+        <v>13.67777777777772</v>
       </c>
       <c r="E5">
-        <v>16.029761904761862</v>
+        <v>15.019047619047569</v>
       </c>
       <c r="F5">
-        <v>-4.3694444444444427</v>
+        <v>-4.5333333333333288</v>
       </c>
       <c r="H5">
-        <v>2.2909999999999999</v>
+        <v>2.1230000000000002</v>
       </c>
       <c r="I5">
-        <v>0.93249999999999988</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="K5">
-        <v>2.4670000000000001</v>
+        <v>2.3645000000000005</v>
       </c>
       <c r="L5">
-        <v>0.13750000000000001</v>
+        <v>0.13350000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="1">
-        <v>18.34047619</v>
-      </c>
-      <c r="B6" s="1">
-        <v>18.605555559999999</v>
+      <c r="A6">
+        <v>15.699999999999969</v>
+      </c>
+      <c r="B6">
+        <v>20.466666666666619</v>
       </c>
       <c r="E6">
-        <v>23.50952380952376</v>
+        <v>22.419047619047568</v>
       </c>
       <c r="F6">
-        <v>-6.7444444444444347</v>
+        <v>-7.0333333333333314</v>
       </c>
       <c r="H6">
-        <v>2.8634999999999997</v>
+        <v>2.6985000000000001</v>
       </c>
       <c r="I6">
-        <v>1.36</v>
+        <v>1.371</v>
       </c>
       <c r="K6">
-        <v>3.5274999999999999</v>
+        <v>3.4039999999999999</v>
       </c>
       <c r="L6">
-        <v>0.13750000000000001</v>
+        <v>0.13350000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="1">
-        <v>19.686904760000001</v>
-      </c>
-      <c r="B7" s="1">
-        <v>26.774999999999999</v>
+      <c r="A7">
+        <v>17.857142857142847</v>
+      </c>
+      <c r="B7">
+        <v>27.633333333333297</v>
       </c>
       <c r="E7">
-        <v>30.929761904761857</v>
+        <v>29.87619047619042</v>
       </c>
       <c r="F7">
-        <v>-9.258333333333308</v>
+        <v>-9.5333333333332888</v>
       </c>
       <c r="H7">
-        <v>3.3324999999999996</v>
+        <v>3.1875</v>
       </c>
       <c r="I7">
-        <v>1.7534999999999996</v>
+        <v>1.8059999999999998</v>
       </c>
       <c r="K7">
-        <v>4.5455000000000005</v>
+        <v>4.4494999999999996</v>
       </c>
       <c r="L7">
-        <v>0.13750000000000001</v>
+        <v>0.13350000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1">
-        <v>20.55238095</v>
-      </c>
-      <c r="B8" s="1">
-        <v>33.17777778</v>
+      <c r="A8">
+        <v>17.919047619047628</v>
+      </c>
+      <c r="B8">
+        <v>34.933333333333287</v>
       </c>
       <c r="E8">
-        <v>38.334523809523766</v>
+        <v>37.376190476190416</v>
       </c>
       <c r="F8">
-        <v>-11.75833333333328</v>
+        <v>-12.033333333333289</v>
       </c>
       <c r="H8">
-        <v>3.6894999999999998</v>
+        <v>3.4564999999999997</v>
       </c>
       <c r="I8">
-        <v>2.1815000000000002</v>
+        <v>2.2469999999999999</v>
       </c>
       <c r="K8">
-        <v>5.5810000000000004</v>
+        <v>5.4995000000000003</v>
       </c>
       <c r="L8">
-        <v>0.13750000000000001</v>
+        <v>0.13350000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="1">
-        <v>19.870238100000002</v>
-      </c>
-      <c r="B9" s="1">
-        <v>40.225000000000001</v>
+      <c r="A9">
+        <v>15.82857142857144</v>
+      </c>
+      <c r="B9">
+        <v>42.26666666666663</v>
       </c>
       <c r="E9">
-        <v>45.776190476190422</v>
+        <v>44.876190476190416</v>
       </c>
       <c r="F9">
-        <v>-14.299999999999965</v>
+        <v>-14.533333333333285</v>
       </c>
       <c r="H9">
-        <v>3.8805000000000001</v>
+        <v>3.4994999999999998</v>
       </c>
       <c r="I9">
-        <v>2.5840000000000001</v>
+        <v>2.6894999999999998</v>
       </c>
       <c r="K9">
-        <v>6.599499999999999</v>
+        <v>6.5495000000000001</v>
       </c>
       <c r="L9">
-        <v>0.13750000000000001</v>
+        <v>0.13350000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1">
-        <v>18.735714290000001</v>
-      </c>
-      <c r="B10" s="1">
-        <v>48.95</v>
+      <c r="A10">
+        <v>13.338095238095246</v>
+      </c>
+      <c r="B10">
+        <v>49.744444444444397</v>
       </c>
       <c r="E10">
-        <v>53.25833333333329</v>
+        <v>52.376190476190416</v>
       </c>
       <c r="F10">
-        <v>-16.813888888888847</v>
+        <v>-17.033333333333285</v>
       </c>
       <c r="H10">
-        <v>4.0235000000000003</v>
+        <v>3.5004999999999997</v>
       </c>
       <c r="I10">
-        <v>3.0364999999999993</v>
+        <v>3.1384999999999996</v>
       </c>
       <c r="K10">
-        <v>7.6495000000000006</v>
+        <v>7.5995000000000008</v>
       </c>
       <c r="L10">
-        <v>0.13750000000000001</v>
+        <v>0.13350000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1">
-        <v>17.47380952</v>
-      </c>
-      <c r="B11" s="1">
-        <v>56.127777780000002</v>
+      <c r="A11">
+        <v>10.838095238095249</v>
+      </c>
+      <c r="B11">
+        <v>57.24444444444439</v>
       </c>
       <c r="E11">
-        <v>61.008333333333283</v>
+        <v>59.861904761904711</v>
       </c>
       <c r="F11">
-        <v>-19.119444444444383</v>
+        <v>-19.533333333333285</v>
       </c>
       <c r="H11">
-        <v>4.1085000000000003</v>
+        <v>3.5004999999999997</v>
       </c>
       <c r="I11">
-        <v>3.4620000000000006</v>
+        <v>3.5884999999999998</v>
       </c>
       <c r="K11">
-        <v>8.7319999999999993</v>
+        <v>8.6479999999999997</v>
       </c>
       <c r="L11">
-        <v>0.13750000000000001</v>
+        <v>0.13350000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="1">
-        <v>16.082142860000001</v>
-      </c>
-      <c r="B12" s="1">
-        <v>62.752777780000002</v>
+      <c r="A12">
+        <v>8.3380952380952493</v>
+      </c>
+      <c r="B12">
+        <v>64.744444444444383</v>
       </c>
       <c r="E12">
-        <v>68.419047619047589</v>
+        <v>67.357142857142819</v>
       </c>
       <c r="F12">
-        <v>-21.68888888888884</v>
+        <v>-22.033333333333285</v>
       </c>
       <c r="H12">
-        <v>4.2425000000000006</v>
+        <v>3.5004999999999997</v>
       </c>
       <c r="I12">
-        <v>3.8950000000000005</v>
+        <v>4.0385</v>
       </c>
       <c r="K12">
-        <v>9.7955000000000005</v>
+        <v>9.6975000000000016</v>
       </c>
       <c r="L12">
-        <v>0.13750000000000001</v>
+        <v>0.13350000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="1">
-        <v>15.015476189999999</v>
-      </c>
-      <c r="B13" s="1">
-        <v>70.008333329999999</v>
+      <c r="A13">
+        <v>5.8380952380952502</v>
+      </c>
+      <c r="B13">
+        <v>72.244444444444383</v>
       </c>
       <c r="E13">
-        <v>75.794047619047589</v>
+        <v>74.823809523809473</v>
       </c>
       <c r="F13">
-        <v>-24.286111111111058</v>
+        <v>-24.533333333333285</v>
       </c>
       <c r="H13">
-        <v>4.3615000000000013</v>
+        <v>3.5004999999999997</v>
       </c>
       <c r="I13">
-        <v>4.2979999999999992</v>
+        <v>4.4885000000000002</v>
       </c>
       <c r="K13">
-        <v>10.878</v>
+        <v>10.743999999999998</v>
       </c>
       <c r="L13">
-        <v>0.13750000000000001</v>
+        <v>0.13350000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="1">
-        <v>14.044047620000001</v>
-      </c>
-      <c r="B14" s="1">
-        <v>77.330555559999993</v>
+      <c r="A14">
+        <v>3.3380952380952502</v>
+      </c>
+      <c r="B14">
+        <v>79.744444444444383</v>
       </c>
       <c r="E14">
-        <v>83.401190476190436</v>
+        <v>82.323809523809473</v>
       </c>
       <c r="F14">
-        <v>-26.702777777777747</v>
+        <v>-27.033333333333282</v>
       </c>
       <c r="H14">
-        <v>4.6450000000000005</v>
+        <v>3.5004999999999997</v>
       </c>
       <c r="I14">
-        <v>4.7444999999999995</v>
+        <v>4.9384999999999994</v>
       </c>
       <c r="K14">
-        <v>11.883000000000001</v>
+        <v>11.794</v>
       </c>
       <c r="L14">
-        <v>0.14150000000000001</v>
+        <v>0.13350000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="1">
-        <v>14.061904759999999</v>
-      </c>
-      <c r="B15" s="1">
-        <v>83.955555559999993</v>
+      <c r="A15">
+        <v>0.83809523809524999</v>
+      </c>
+      <c r="B15">
+        <v>87.211111111111066</v>
       </c>
       <c r="E15">
-        <v>90.748809523809499</v>
+        <v>89.823809523809473</v>
       </c>
       <c r="F15">
-        <v>-28.780555555555509</v>
+        <v>-29.533333333333282</v>
       </c>
       <c r="H15">
-        <v>5.0675000000000008</v>
+        <v>3.5004999999999997</v>
       </c>
       <c r="I15">
-        <v>5.2160000000000002</v>
+        <v>5.3870000000000005</v>
       </c>
       <c r="K15">
-        <v>12.9345</v>
+        <v>12.844000000000003</v>
       </c>
       <c r="L15">
-        <v>0.14700000000000002</v>
+        <v>0.13350000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="1">
-        <v>14.122619050000001</v>
-      </c>
-      <c r="B16" s="1">
-        <v>91.013888890000004</v>
+      <c r="A16">
+        <v>-1.66190476190475</v>
+      </c>
+      <c r="B16">
+        <v>94.599999999999952</v>
       </c>
       <c r="E16">
-        <v>98.638095238094991</v>
+        <v>97.323809523809473</v>
       </c>
       <c r="F16">
-        <v>-30.533333333333282</v>
+        <v>-32.033333333333282</v>
       </c>
       <c r="H16">
-        <v>5.4314999999999989</v>
+        <v>3.5004999999999997</v>
       </c>
       <c r="I16">
-        <v>5.6790000000000003</v>
+        <v>5.8320000000000007</v>
       </c>
       <c r="K16">
-        <v>13.973500000000001</v>
+        <v>13.894</v>
       </c>
       <c r="L16">
-        <v>0.14950000000000002</v>
+        <v>0.13350000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="1">
-        <v>14.23095238</v>
-      </c>
-      <c r="B17" s="1">
-        <v>98.494444439999995</v>
+      <c r="A17">
+        <v>-4.1619047619047507</v>
+      </c>
+      <c r="B17">
+        <v>101.84444444444415</v>
       </c>
       <c r="E17">
-        <v>106.13452380952349</v>
+        <v>104.8238095238092</v>
       </c>
       <c r="F17">
-        <v>-32.6805555555555</v>
+        <v>-34.533333333333282</v>
       </c>
       <c r="H17">
-        <v>5.85</v>
+        <v>3.5004999999999997</v>
       </c>
       <c r="I17">
-        <v>6.1179999999999994</v>
+        <v>6.2705000000000002</v>
       </c>
       <c r="K17">
-        <v>14.963999999999999</v>
+        <v>14.943999999999999</v>
       </c>
       <c r="L17">
-        <v>0.16699999999999998</v>
+        <v>0.13350000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="1">
-        <v>13.91547619</v>
-      </c>
-      <c r="B18" s="1">
-        <v>105.27500000000001</v>
+      <c r="A18">
+        <v>-6.6619047619047489</v>
+      </c>
+      <c r="B18">
+        <v>109.03333333333281</v>
       </c>
       <c r="E18">
-        <v>113.51785714285661</v>
+        <v>112.3238095238092</v>
       </c>
       <c r="F18">
-        <v>-34.819444444444422</v>
+        <v>-37.033333333333282</v>
       </c>
       <c r="H18">
-        <v>6.3069999999999995</v>
+        <v>3.5004999999999997</v>
       </c>
       <c r="I18">
-        <v>6.5224999999999991</v>
+        <v>6.706500000000001</v>
       </c>
       <c r="K18">
-        <v>16.0015</v>
+        <v>15.994</v>
       </c>
       <c r="L18">
-        <v>0.193</v>
+        <v>0.13350000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="1">
-        <v>13.830952379999999</v>
-      </c>
-      <c r="B19" s="1">
-        <v>111.76111109999999</v>
+      <c r="A19">
+        <v>-9.1619047619047489</v>
+      </c>
+      <c r="B19">
+        <v>116.14444444444401</v>
       </c>
       <c r="E19">
-        <v>120.6523809523804</v>
+        <v>119.8238095238092</v>
       </c>
       <c r="F19">
-        <v>-37.122222222222184</v>
+        <v>-39.533333333333282</v>
       </c>
       <c r="H19">
-        <v>6.8129999999999997</v>
+        <v>3.5004999999999997</v>
       </c>
       <c r="I19">
-        <v>6.9535</v>
+        <v>7.1390000000000002</v>
       </c>
       <c r="K19">
-        <v>17.036499999999997</v>
+        <v>17.044</v>
       </c>
       <c r="L19">
-        <v>0.21200000000000002</v>
+        <v>0.13350000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="1">
-        <v>13.96428571</v>
-      </c>
-      <c r="B20" s="1">
-        <v>118.4833333</v>
+      <c r="A20">
+        <v>-10.433333333333319</v>
+      </c>
+      <c r="B20">
+        <v>123.0555555555552</v>
       </c>
       <c r="E20">
-        <v>127.61071428571381</v>
+        <v>127.3238095238092</v>
       </c>
       <c r="F20">
-        <v>-39.236111111111086</v>
+        <v>-42.033333333333275</v>
       </c>
       <c r="H20">
-        <v>7.2700000000000005</v>
+        <v>3.6294999999999993</v>
       </c>
       <c r="I20">
-        <v>7.3914999999999988</v>
+        <v>7.5625</v>
       </c>
       <c r="K20">
-        <v>18.02</v>
+        <v>18.094000000000001</v>
       </c>
       <c r="L20">
-        <v>0.22999999999999998</v>
+        <v>0.13350000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="1">
-        <v>14.490476190000001</v>
-      </c>
-      <c r="B21" s="1">
-        <v>125</v>
+      <c r="A21">
+        <v>-11.219047619047609</v>
+      </c>
+      <c r="B21">
+        <v>129.8222222222218</v>
       </c>
       <c r="E21">
-        <v>134.46785714285679</v>
+        <v>134.82380952380919</v>
       </c>
       <c r="F21">
-        <v>-41.524999999999956</v>
+        <v>-44.533333333333275</v>
       </c>
       <c r="H21">
-        <v>7.673</v>
+        <v>3.809499999999999</v>
       </c>
       <c r="I21">
-        <v>7.7800000000000011</v>
+        <v>7.9794999999999998</v>
       </c>
       <c r="K21">
-        <v>19.053999999999998</v>
+        <v>19.143999999999998</v>
       </c>
       <c r="L21">
-        <v>0.25250000000000006</v>
+        <v>0.13350000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="1">
-        <v>16.627380949999999</v>
-      </c>
-      <c r="B22" s="1">
-        <v>130.43611110000001</v>
+      <c r="A22">
+        <v>-11.73333333333332</v>
+      </c>
+      <c r="B22">
+        <v>136.75555555555519</v>
       </c>
       <c r="E22">
-        <v>141.43095238095199</v>
+        <v>142.29999999999967</v>
       </c>
       <c r="F22">
-        <v>-43.549999999999955</v>
+        <v>-46.877777777777716</v>
       </c>
       <c r="H22">
-        <v>7.9969999999999999</v>
+        <v>4.0179999999999989</v>
       </c>
       <c r="I22">
-        <v>8.1300000000000008</v>
+        <v>8.4039999999999999</v>
       </c>
       <c r="K22">
-        <v>20.0625</v>
+        <v>20.191499999999998</v>
       </c>
       <c r="L22">
-        <v>0.26749999999999996</v>
+        <v>0.14050000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="1">
-        <v>18.733333330000001</v>
-      </c>
-      <c r="B23" s="1">
-        <v>136.96666669999999</v>
+      <c r="A23">
+        <v>-12.92857142857142</v>
+      </c>
+      <c r="B23">
+        <v>143.35555555555487</v>
       </c>
       <c r="E23">
-        <v>148.31547619047569</v>
+        <v>149.76190476190442</v>
       </c>
       <c r="F23">
-        <v>-45.58055555555552</v>
+        <v>-48.911111111111055</v>
       </c>
       <c r="H23">
-        <v>8.3775000000000013</v>
+        <v>4.1549999999999994</v>
       </c>
       <c r="I23">
-        <v>8.4995000000000012</v>
+        <v>8.8135000000000012</v>
       </c>
       <c r="K23">
-        <v>21.054000000000002</v>
+        <v>21.237499999999997</v>
       </c>
       <c r="L23">
-        <v>0.29199999999999993</v>
+        <v>0.16149999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="1">
-        <v>19.444047619999999</v>
-      </c>
-      <c r="B24" s="1">
-        <v>143.27500000000001</v>
+      <c r="A24">
+        <v>-14.504761904761898</v>
+      </c>
+      <c r="B24">
+        <v>149.78888888888849</v>
       </c>
       <c r="E24">
-        <v>155.11785714285659</v>
+        <v>157.12380952380909</v>
       </c>
       <c r="F24">
-        <v>-47.097222222222179</v>
+        <v>-50.98888888888883</v>
       </c>
       <c r="H24">
-        <v>8.6819999999999986</v>
+        <v>4.2519999999999998</v>
       </c>
       <c r="I24">
-        <v>8.9075000000000006</v>
+        <v>9.2154999999999987</v>
       </c>
       <c r="K24">
-        <v>22.019500000000004</v>
+        <v>22.273</v>
       </c>
       <c r="L24">
-        <v>0.32899999999999996</v>
+        <v>0.18049999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="1">
-        <v>19.980952380000002</v>
-      </c>
-      <c r="B25" s="1">
-        <v>150.2222222</v>
+      <c r="A25">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="B25">
+        <v>156.1666666666662</v>
       </c>
       <c r="E25">
-        <v>161.87619047618998</v>
+        <v>164.47619047619</v>
       </c>
       <c r="F25">
-        <v>-48.777777777777729</v>
+        <v>-52.844444444444377</v>
       </c>
       <c r="H25">
-        <v>9.0800000000000018</v>
+        <v>4.2629999999999999</v>
       </c>
       <c r="I25">
-        <v>9.2534999999999989</v>
+        <v>9.6149999999999984</v>
       </c>
       <c r="K25">
-        <v>22.9895</v>
+        <v>23.307500000000001</v>
       </c>
       <c r="L25">
-        <v>0.34749999999999998</v>
+        <v>0.20950000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="1">
-        <v>21.440476189999998</v>
-      </c>
-      <c r="B26" s="1">
-        <v>156.50555560000001</v>
+      <c r="A26">
+        <v>-19.2</v>
+      </c>
+      <c r="B26">
+        <v>162.8777777777772</v>
       </c>
       <c r="E26">
-        <v>168.83095238095191</v>
+        <v>171.71428571428527</v>
       </c>
       <c r="F26">
-        <v>-50.405555555555502</v>
+        <v>-53.75555555555551</v>
       </c>
       <c r="H26">
-        <v>9.520999999999999</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="I26">
-        <v>9.6479999999999997</v>
+        <v>10.029499999999999</v>
       </c>
       <c r="K26">
-        <v>23.940999999999999</v>
+        <v>24.330000000000002</v>
       </c>
       <c r="L26">
-        <v>0.36899999999999999</v>
+        <v>0.28100000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="1">
-        <v>22.88095238</v>
-      </c>
-      <c r="B27" s="1">
-        <v>163.42222219999999</v>
+      <c r="A27">
+        <v>-21.7</v>
+      </c>
+      <c r="B27">
+        <v>169.2111111111108</v>
       </c>
       <c r="E27">
-        <v>175.65119047618992</v>
+        <v>178.79047619047572</v>
       </c>
       <c r="F27">
-        <v>-52.14166666666663</v>
+        <v>-55.28888888888882</v>
       </c>
       <c r="H27">
-        <v>9.8744999999999994</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="I27">
-        <v>10.022</v>
+        <v>10.427000000000001</v>
       </c>
       <c r="K27">
-        <v>24.912500000000001</v>
+        <v>25.3355</v>
       </c>
       <c r="L27">
-        <v>0.41799999999999998</v>
+        <v>0.32450000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="1">
-        <v>25.969047620000001</v>
-      </c>
-      <c r="B28" s="1">
-        <v>169.3388889</v>
+      <c r="A28">
+        <v>-24.2</v>
+      </c>
+      <c r="B28">
+        <v>175.29999999999936</v>
       </c>
       <c r="E28">
-        <v>182.29642857142798</v>
+        <v>185.73333333333301</v>
       </c>
       <c r="F28">
-        <v>-54.180555555555522</v>
+        <v>-56.61111111111105</v>
       </c>
       <c r="H28">
-        <v>10.309000000000001</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="I28">
-        <v>10.4435</v>
+        <v>10.813499999999999</v>
       </c>
       <c r="K28">
-        <v>25.916000000000004</v>
+        <v>26.327000000000005</v>
       </c>
       <c r="L28">
-        <v>0.46550000000000002</v>
+        <v>0.3775</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="1">
-        <v>28.36309524</v>
-      </c>
-      <c r="B29" s="1">
-        <v>176.0083333</v>
+      <c r="A29">
+        <v>-26.3</v>
+      </c>
+      <c r="B29">
+        <v>181.77777777777729</v>
       </c>
       <c r="E29">
-        <v>189.20595238095203</v>
+        <v>192.47619047619</v>
       </c>
       <c r="F29">
-        <v>-56.002777777777737</v>
+        <v>-58.055555555555522</v>
       </c>
       <c r="H29">
-        <v>10.730499999999999</v>
+        <v>4.3259999999999996</v>
       </c>
       <c r="I29">
-        <v>10.859500000000001</v>
+        <v>11.217499999999999</v>
       </c>
       <c r="K29">
-        <v>26.8765</v>
+        <v>27.297500000000003</v>
       </c>
       <c r="L29">
-        <v>0.52049999999999996</v>
+        <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="1">
-        <v>29.815476189999998</v>
-      </c>
-      <c r="B30" s="1">
-        <v>181.58611110000001</v>
+      <c r="A30">
+        <v>-28.4</v>
+      </c>
+      <c r="B30">
+        <v>187.86666666666639</v>
       </c>
       <c r="E30">
-        <v>196.07142857142799</v>
+        <v>199.3857142857137</v>
       </c>
       <c r="F30">
-        <v>-57.611111111111072</v>
+        <v>-59.733333333333277</v>
       </c>
       <c r="H30">
-        <v>11.191999999999998</v>
+        <v>4.3680000000000003</v>
       </c>
       <c r="I30">
-        <v>11.23</v>
+        <v>11.603999999999999</v>
       </c>
       <c r="K30">
-        <v>27.859500000000004</v>
+        <v>28.285499999999995</v>
       </c>
       <c r="L30">
-        <v>0.57350000000000001</v>
+        <v>0.46199999999999991</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="1">
-        <v>31.408333330000001</v>
-      </c>
-      <c r="B31" s="1">
-        <v>188.15833330000001</v>
+      <c r="A31">
+        <v>-30.9</v>
+      </c>
+      <c r="B31">
+        <v>193.92222222222179</v>
       </c>
       <c r="E31">
-        <v>202.90119047618998</v>
+        <v>206.39523809523763</v>
       </c>
       <c r="F31">
-        <v>-59.324999999999953</v>
+        <v>-61.422222222222175</v>
       </c>
       <c r="H31">
-        <v>11.5405</v>
+        <v>4.3680000000000003</v>
       </c>
       <c r="I31">
-        <v>11.631499999999999</v>
+        <v>11.989000000000001</v>
       </c>
       <c r="K31">
-        <v>28.803499999999996</v>
+        <v>29.284000000000002</v>
       </c>
       <c r="L31">
-        <v>0.60899999999999999</v>
+        <v>0.49849999999999994</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="1">
-        <v>32.85</v>
-      </c>
-      <c r="B32" s="1">
-        <v>194.53888889999999</v>
+      <c r="A32">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="B32">
+        <v>200.21111111111071</v>
       </c>
       <c r="E32">
-        <v>209.5488095238091</v>
+        <v>213.37619047619009</v>
       </c>
       <c r="F32">
-        <v>-61.358333333333292</v>
+        <v>-63.488888888888837</v>
       </c>
       <c r="H32">
-        <v>11.975</v>
+        <v>4.3890000000000002</v>
       </c>
       <c r="I32">
-        <v>11.991</v>
+        <v>12.384499999999999</v>
       </c>
       <c r="K32">
-        <v>29.776</v>
+        <v>30.279500000000002</v>
       </c>
       <c r="L32">
-        <v>0.64750000000000008</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="1">
-        <v>34.559523810000002</v>
-      </c>
-      <c r="B33" s="1">
-        <v>199.90555560000001</v>
+      <c r="A33">
+        <v>-35.1095238095238</v>
+      </c>
+      <c r="B33">
+        <v>206.45555555555512</v>
       </c>
       <c r="E33">
-        <v>216.08809523809492</v>
+        <v>220.0714285714279</v>
       </c>
       <c r="F33">
-        <v>-63.07222222222218</v>
+        <v>-64.9444444444444</v>
       </c>
       <c r="H33">
-        <v>12.422499999999999</v>
+        <v>4.4509999999999996</v>
       </c>
       <c r="I33">
-        <v>12.351000000000001</v>
+        <v>12.777999999999999</v>
       </c>
       <c r="K33">
-        <v>30.724</v>
+        <v>31.244999999999997</v>
       </c>
       <c r="L33">
-        <v>0.69700000000000006</v>
+        <v>0.56500000000000006</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="1">
-        <v>36.117857139999998</v>
-      </c>
-      <c r="B34" s="1">
-        <v>205.52500000000001</v>
+      <c r="A34">
+        <v>-37.4</v>
+      </c>
+      <c r="B34">
+        <v>212.7777777777772</v>
       </c>
       <c r="E34">
-        <v>222.2583333333329</v>
+        <v>226.49999999999949</v>
       </c>
       <c r="F34">
-        <v>-64.44722222222218</v>
+        <v>-66.29999999999994</v>
       </c>
       <c r="H34">
-        <v>12.931000000000001</v>
+        <v>4.4729999999999999</v>
       </c>
       <c r="I34">
-        <v>12.724500000000001</v>
+        <v>13.175000000000001</v>
       </c>
       <c r="K34">
-        <v>31.664500000000004</v>
+        <v>32.182500000000005</v>
       </c>
       <c r="L34">
-        <v>0.7569999999999999</v>
+        <v>0.61650000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="1">
-        <v>37.742857139999998</v>
-      </c>
-      <c r="B35" s="1">
-        <v>211.12222220000001</v>
+      <c r="A35">
+        <v>-39.304761904761904</v>
+      </c>
+      <c r="B35">
+        <v>218.48888888888851</v>
       </c>
       <c r="E35">
-        <v>228.45119047618999</v>
+        <v>233.18095238095171</v>
       </c>
       <c r="F35">
-        <v>-64.852777777777732</v>
+        <v>-67.722222222222186</v>
       </c>
       <c r="H35">
-        <v>13.428000000000001</v>
+        <v>4.5354999999999999</v>
       </c>
       <c r="I35">
-        <v>13.045500000000001</v>
+        <v>13.544499999999999</v>
       </c>
       <c r="K35">
-        <v>32.567999999999998</v>
+        <v>33.146500000000003</v>
       </c>
       <c r="L35">
-        <v>0.82499999999999984</v>
+        <v>0.66500000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="1">
-        <v>40.265476190000001</v>
-      </c>
-      <c r="B36" s="1">
-        <v>217.06944440000001</v>
+      <c r="A36">
+        <v>-41.2</v>
+      </c>
+      <c r="B36">
+        <v>223.94444444444389</v>
       </c>
       <c r="E36">
-        <v>234.74047619047559</v>
+        <v>239.35714285714249</v>
       </c>
       <c r="F36">
-        <v>-65.405555555555509</v>
+        <v>-69.044444444444395</v>
       </c>
       <c r="H36">
-        <v>13.99</v>
+        <v>4.5990000000000002</v>
       </c>
       <c r="I36">
-        <v>13.456</v>
+        <v>13.9025</v>
       </c>
       <c r="K36">
-        <v>33.486000000000004</v>
+        <v>34.057500000000005</v>
       </c>
       <c r="L36">
-        <v>0.89400000000000013</v>
+        <v>0.71799999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="1">
-        <v>43.127380950000003</v>
-      </c>
-      <c r="B37" s="1">
-        <v>222.33611110000001</v>
+      <c r="A37">
+        <v>-42.504761904761907</v>
+      </c>
+      <c r="B37">
+        <v>229.37777777777728</v>
       </c>
       <c r="E37">
-        <v>240.52380952380901</v>
+        <v>245.75714285714247</v>
       </c>
       <c r="F37">
-        <v>-66.233333333333292</v>
+        <v>-70.56666666666662</v>
       </c>
       <c r="H37">
-        <v>14.5275</v>
+        <v>4.7244999999999999</v>
       </c>
       <c r="I37">
-        <v>13.834999999999999</v>
+        <v>14.259499999999999</v>
       </c>
       <c r="K37">
-        <v>34.407000000000004</v>
+        <v>34.991999999999997</v>
       </c>
       <c r="L37">
-        <v>0.94700000000000006</v>
+        <v>0.7619999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="1">
-        <v>46.463095240000001</v>
-      </c>
-      <c r="B38" s="1">
-        <v>228.31944440000001</v>
+      <c r="A38">
+        <v>-44.409523809523805</v>
+      </c>
+      <c r="B38">
+        <v>234.64444444444402</v>
       </c>
       <c r="E38">
-        <v>246.05476190476162</v>
+        <v>251.89047619047568</v>
       </c>
       <c r="F38">
-        <v>-66.94999999999996</v>
+        <v>-71.777777777777743</v>
       </c>
       <c r="H38">
-        <v>15.045999999999998</v>
+        <v>4.7870000000000008</v>
       </c>
       <c r="I38">
-        <v>14.220500000000001</v>
+        <v>14.609</v>
       </c>
       <c r="K38">
-        <v>35.257500000000007</v>
+        <v>35.898499999999999</v>
       </c>
       <c r="L38">
-        <v>1.036</v>
+        <v>0.82000000000000006</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="1">
-        <v>50.109523809999999</v>
-      </c>
-      <c r="B39" s="1">
-        <v>233.3555556</v>
+      <c r="A39">
+        <v>-45.104761904761901</v>
+      </c>
+      <c r="B39">
+        <v>239.76666666666625</v>
       </c>
       <c r="E39">
-        <v>251.49523809523765</v>
+        <v>257.74285714285668</v>
       </c>
       <c r="F39">
-        <v>-66.955555555555506</v>
+        <v>-72.611111111111072</v>
       </c>
       <c r="H39">
-        <v>15.562999999999999</v>
+        <v>4.9764999999999988</v>
       </c>
       <c r="I39">
-        <v>14.609</v>
+        <v>14.951999999999998</v>
       </c>
       <c r="K39">
-        <v>36.137</v>
+        <v>36.775500000000008</v>
       </c>
       <c r="L39">
-        <v>1.0844999999999998</v>
+        <v>0.89499999999999991</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="1">
-        <v>53.589285709999999</v>
-      </c>
-      <c r="B40" s="1">
-        <v>238.33611110000001</v>
+      <c r="A40">
+        <v>-46.204761904761895</v>
+      </c>
+      <c r="B40">
+        <v>244.31111111111076</v>
       </c>
       <c r="E40">
-        <v>256.84523809523779</v>
+        <v>263.7714285714282</v>
       </c>
       <c r="F40">
-        <v>-66.094444444444406</v>
+        <v>-73.511111111111063</v>
       </c>
       <c r="H40">
-        <v>16.170999999999999</v>
+        <v>5.1234999999999999</v>
       </c>
       <c r="I40">
-        <v>14.940999999999999</v>
+        <v>15.269</v>
       </c>
       <c r="K40">
-        <v>36.954000000000001</v>
+        <v>37.670999999999999</v>
       </c>
       <c r="L40">
-        <v>1.17</v>
+        <v>0.96699999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="1">
-        <v>57.188095240000003</v>
-      </c>
-      <c r="B41" s="1">
-        <v>242.26111109999999</v>
+      <c r="A41">
+        <v>-47.514285714285705</v>
+      </c>
+      <c r="B41">
+        <v>249.15555555555511</v>
       </c>
       <c r="E41">
-        <v>261.59642857142813</v>
+        <v>269.03333333333273</v>
       </c>
       <c r="F41">
-        <v>-65.858333333333306</v>
+        <v>-73.422222222222189</v>
       </c>
       <c r="H41">
-        <v>16.865000000000002</v>
+        <v>5.2484999999999999</v>
       </c>
       <c r="I41">
-        <v>15.281499999999999</v>
+        <v>15.599500000000001</v>
       </c>
       <c r="K41">
-        <v>37.712499999999999</v>
+        <v>38.486000000000004</v>
       </c>
       <c r="L41">
-        <v>1.3060000000000003</v>
+        <v>1.0835000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="1">
-        <v>60.77380952</v>
-      </c>
-      <c r="B42" s="1">
-        <v>246.4833333</v>
+      <c r="A42">
+        <v>-48.6095238095238</v>
+      </c>
+      <c r="B42">
+        <v>253.78888888888838</v>
       </c>
       <c r="E42">
-        <v>265.72499999999962</v>
+        <v>274.26666666666631</v>
       </c>
       <c r="F42">
-        <v>-65.091666666666626</v>
+        <v>-73.844444444444406</v>
       </c>
       <c r="H42">
-        <v>17.626999999999999</v>
+        <v>5.395999999999999</v>
       </c>
       <c r="I42">
-        <v>15.603</v>
+        <v>15.920500000000001</v>
       </c>
       <c r="K42">
-        <v>38.411000000000001</v>
+        <v>39.298000000000009</v>
       </c>
       <c r="L42">
-        <v>1.4704999999999999</v>
+        <v>1.177</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="1">
-        <v>63.732142860000003</v>
-      </c>
-      <c r="B43" s="1">
-        <v>251.2138889</v>
+      <c r="A43">
+        <v>-47.5</v>
+      </c>
+      <c r="B43">
+        <v>258.15555555555511</v>
       </c>
       <c r="E43">
-        <v>269.22738095238049</v>
+        <v>278.89523809523763</v>
       </c>
       <c r="F43">
-        <v>-63.274999999999956</v>
+        <v>-73.655555555555523</v>
       </c>
       <c r="H43">
-        <v>18.199000000000002</v>
+        <v>5.7749999999999995</v>
       </c>
       <c r="I43">
-        <v>15.9465</v>
+        <v>16.229500000000002</v>
       </c>
       <c r="K43">
-        <v>39.081000000000003</v>
+        <v>40.046499999999995</v>
       </c>
       <c r="L43">
-        <v>1.6519999999999999</v>
+        <v>1.298</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="1">
-        <v>66.615476189999995</v>
-      </c>
-      <c r="B44" s="1">
-        <v>255.7416667</v>
+      <c r="A44">
+        <v>-48.204761904761895</v>
+      </c>
+      <c r="B44">
+        <v>262.59999999999968</v>
       </c>
       <c r="E44">
-        <v>272.63571428571379</v>
+        <v>282.75714285714241</v>
       </c>
       <c r="F44">
-        <v>-61.638888888888836</v>
+        <v>-72.622222222222177</v>
       </c>
       <c r="H44">
-        <v>18.697500000000002</v>
+        <v>5.9634999999999998</v>
       </c>
       <c r="I44">
-        <v>16.2455</v>
+        <v>16.541999999999998</v>
       </c>
       <c r="K44">
-        <v>39.639499999999998</v>
+        <v>40.714500000000001</v>
       </c>
       <c r="L44">
-        <v>1.89</v>
+        <v>1.4570000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="1">
-        <v>69.415476190000007</v>
-      </c>
-      <c r="B45" s="1">
-        <v>259.66388890000002</v>
+      <c r="A45">
+        <v>-47.3</v>
+      </c>
+      <c r="B45">
+        <v>266.2999999999995</v>
       </c>
       <c r="E45">
-        <v>275.17857142857099</v>
+        <v>285.30952380952328</v>
       </c>
       <c r="F45">
-        <v>-58.416666666666615</v>
+        <v>-70.399999999999949</v>
       </c>
       <c r="H45">
-        <v>19.2165</v>
+        <v>6.3209999999999988</v>
       </c>
       <c r="I45">
-        <v>16.536000000000001</v>
+        <v>16.820999999999998</v>
       </c>
       <c r="K45">
-        <v>40.136000000000003</v>
+        <v>41.24499999999999</v>
       </c>
       <c r="L45">
-        <v>2.1435</v>
+        <v>1.6695</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="1">
-        <v>73.257142860000002</v>
-      </c>
-      <c r="B46" s="1">
-        <v>263.1333333</v>
+      <c r="A46">
+        <v>-47.009523809523799</v>
+      </c>
+      <c r="B46">
+        <v>269.57777777777738</v>
       </c>
       <c r="E46">
-        <v>276.87261904761863</v>
+        <v>286.58571428571366</v>
       </c>
       <c r="F46">
-        <v>-54.824999999999953</v>
+        <v>-66.533333333333303</v>
       </c>
       <c r="H46">
-        <v>19.755000000000003</v>
+        <v>6.6139999999999999</v>
       </c>
       <c r="I46">
-        <v>16.770500000000002</v>
+        <v>17.081</v>
       </c>
       <c r="K46">
-        <v>40.544500000000006</v>
+        <v>41.641499999999994</v>
       </c>
       <c r="L46">
-        <v>2.4180000000000001</v>
+        <v>1.9560000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="1">
-        <v>78.338095240000001</v>
-      </c>
-      <c r="B47" s="1">
-        <v>266.53333329999998</v>
+      <c r="A47">
+        <v>-44.709523809523802</v>
+      </c>
+      <c r="B47">
+        <v>271.52222222222179</v>
       </c>
       <c r="E47">
-        <v>277.5607142857138</v>
+        <v>286.02380952380901</v>
       </c>
       <c r="F47">
-        <v>-51.097222222222172</v>
+        <v>-61.033333333333303</v>
       </c>
       <c r="H47">
-        <v>20.4665</v>
+        <v>7.1179999999999994</v>
       </c>
       <c r="I47">
-        <v>16.993500000000001</v>
+        <v>17.280999999999999</v>
       </c>
       <c r="K47">
-        <v>40.912500000000001</v>
+        <v>41.844999999999999</v>
       </c>
       <c r="L47">
-        <v>2.7355</v>
+        <v>2.3159999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="1">
-        <v>82.7702381</v>
-      </c>
-      <c r="B48" s="1">
-        <v>268.42500000000001</v>
+      <c r="A48">
+        <v>-40.4</v>
+      </c>
+      <c r="B48">
+        <v>272.66666666666617</v>
       </c>
       <c r="E48">
-        <v>277.20238095238057</v>
+        <v>284.28095238095227</v>
       </c>
       <c r="F48">
-        <v>-46.394444444444403</v>
+        <v>-54.244444444444433</v>
       </c>
       <c r="H48">
-        <v>21.3445</v>
+        <v>7.8330000000000002</v>
       </c>
       <c r="I48">
-        <v>17.1905</v>
+        <v>17.445</v>
       </c>
       <c r="K48">
-        <v>41.204999999999998</v>
+        <v>41.924500000000002</v>
       </c>
       <c r="L48">
-        <v>3.0859999999999999</v>
+        <v>2.7339999999999995</v>
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="1">
-        <v>87.535714290000001</v>
-      </c>
-      <c r="B49" s="1">
-        <v>269.63888889999998</v>
+      <c r="A49">
+        <v>-37.9</v>
+      </c>
+      <c r="B49">
+        <v>273.98888888888848</v>
       </c>
       <c r="E49">
-        <v>276.67499999999939</v>
+        <v>282.3</v>
       </c>
       <c r="F49">
-        <v>-40.841666666666626</v>
+        <v>-47.3</v>
       </c>
       <c r="H49">
-        <v>22.2575</v>
+        <v>8.3580000000000005</v>
       </c>
       <c r="I49">
-        <v>17.349499999999999</v>
+        <v>17.617000000000001</v>
       </c>
       <c r="K49">
-        <v>41.394999999999996</v>
+        <v>41.978999999999999</v>
       </c>
       <c r="L49">
-        <v>3.4210000000000003</v>
+        <v>3.1589999999999994</v>
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="1">
-        <v>94.363095240000007</v>
-      </c>
-      <c r="B50" s="1">
-        <v>270.18611110000001</v>
+      <c r="A50">
+        <v>-32.404761904761898</v>
+      </c>
+      <c r="B50">
+        <v>274.57777777777738</v>
       </c>
       <c r="E50">
-        <v>275.69999999999965</v>
+        <v>279.8</v>
       </c>
       <c r="F50">
-        <v>-34.9444444444444</v>
+        <v>-39.799999999999997</v>
       </c>
       <c r="H50">
-        <v>23.144500000000001</v>
+        <v>9.1975000000000016</v>
       </c>
       <c r="I50">
-        <v>17.491</v>
+        <v>17.756</v>
       </c>
       <c r="K50">
-        <v>41.546500000000002</v>
+        <v>41.978999999999999</v>
       </c>
       <c r="L50">
-        <v>3.8159999999999998</v>
+        <v>3.6090000000000004</v>
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="1">
-        <v>100.55952379999999</v>
-      </c>
-      <c r="B51" s="1">
-        <v>270.22777780000001</v>
+      <c r="A51">
+        <v>-28.1</v>
+      </c>
+      <c r="B51">
+        <v>274.37777777777728</v>
       </c>
       <c r="E51">
-        <v>274.33571428571383</v>
+        <v>277.45238095238091</v>
       </c>
       <c r="F51">
-        <v>-28.072222222222184</v>
+        <v>-32.43333333333333</v>
       </c>
       <c r="H51">
-        <v>23.987000000000002</v>
+        <v>9.9120000000000008</v>
       </c>
       <c r="I51">
-        <v>17.6005</v>
+        <v>17.859500000000001</v>
       </c>
       <c r="K51">
-        <v>41.661999999999999</v>
+        <v>41.994999999999997</v>
       </c>
       <c r="L51">
-        <v>4.2210000000000001</v>
+        <v>4.052999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="1">
-        <v>106.39642859999999</v>
-      </c>
-      <c r="B52" s="1">
-        <v>269.93055559999999</v>
+      <c r="A52">
+        <v>-22.4</v>
+      </c>
+      <c r="B52">
+        <v>272.66666666666652</v>
       </c>
       <c r="E52">
-        <v>272.61071428571381</v>
+        <v>275</v>
       </c>
       <c r="F52">
-        <v>-20.913888888888852</v>
+        <v>-25</v>
       </c>
       <c r="H52">
-        <v>24.906000000000002</v>
+        <v>10.773000000000001</v>
       </c>
       <c r="I52">
-        <v>17.706</v>
+        <v>17.895</v>
       </c>
       <c r="K52">
-        <v>41.762500000000003</v>
+        <v>42</v>
       </c>
       <c r="L52">
-        <v>4.6460000000000008</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="1">
-        <v>113.1797619</v>
-      </c>
-      <c r="B53" s="1">
-        <v>269.56944440000001</v>
+      <c r="A53">
+        <v>-15.5</v>
+      </c>
+      <c r="B53">
+        <v>270.85555555555538</v>
       </c>
       <c r="E53">
-        <v>270.87976190476127</v>
+        <v>272.5</v>
       </c>
       <c r="F53">
-        <v>-13.719444444444424</v>
+        <v>-17.5</v>
       </c>
       <c r="H53">
-        <v>25.8245</v>
+        <v>11.760000000000002</v>
       </c>
       <c r="I53">
-        <v>17.791499999999999</v>
+        <v>17.925999999999998</v>
       </c>
       <c r="K53">
-        <v>41.817999999999998</v>
+        <v>42</v>
       </c>
       <c r="L53">
-        <v>5.0804999999999998</v>
+        <v>4.9500000000000011</v>
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="1">
-        <v>119.95833330000001</v>
-      </c>
-      <c r="B54" s="1">
-        <v>268.6972222</v>
+      <c r="A54">
+        <v>-8.6</v>
+      </c>
+      <c r="B54">
+        <v>268.93333333333322</v>
       </c>
       <c r="E54">
-        <v>268.86547619047559</v>
+        <v>270</v>
       </c>
       <c r="F54">
-        <v>-7.0638888888888713</v>
+        <v>-10</v>
       </c>
       <c r="H54">
-        <v>26.7455</v>
+        <v>12.747000000000002</v>
       </c>
       <c r="I54">
-        <v>17.852000000000004</v>
+        <v>17.951999999999998</v>
       </c>
       <c r="K54">
-        <v>41.869500000000002</v>
+        <v>42</v>
       </c>
       <c r="L54">
-        <v>5.5</v>
+        <v>5.3999999999999995</v>
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="1">
-        <v>126.7535714</v>
-      </c>
-      <c r="B55" s="1">
-        <v>267.5527778</v>
+      <c r="A55">
+        <v>-1.7</v>
+      </c>
+      <c r="B55">
+        <v>266.8333333333332</v>
       </c>
       <c r="E55">
-        <v>266.86785714285662</v>
+        <v>267.5</v>
       </c>
       <c r="F55">
-        <v>0.7527777777777811</v>
+        <v>-2.5</v>
       </c>
       <c r="H55">
-        <v>27.622000000000003</v>
+        <v>13.734</v>
       </c>
       <c r="I55">
-        <v>17.895500000000002</v>
+        <v>17.97</v>
       </c>
       <c r="K55">
-        <v>41.896999999999998</v>
+        <v>42</v>
       </c>
       <c r="L55">
-        <v>5.9444999999999997</v>
+        <v>5.8500000000000005</v>
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="1">
-        <v>133.54642860000001</v>
-      </c>
-      <c r="B56" s="1">
-        <v>265.69166669999998</v>
+      <c r="A56">
+        <v>5.4</v>
+      </c>
+      <c r="B56">
+        <v>264.74444444444441</v>
       </c>
       <c r="E56">
-        <v>264.7452380952376</v>
+        <v>265</v>
       </c>
       <c r="F56">
-        <v>7.9611111111110748</v>
+        <v>5</v>
       </c>
       <c r="H56">
-        <v>28.463000000000005</v>
+        <v>14.741999999999999</v>
       </c>
       <c r="I56">
-        <v>17.922999999999998</v>
+        <v>17.988499999999998</v>
       </c>
       <c r="K56">
-        <v>41.929000000000002</v>
+        <v>42</v>
       </c>
       <c r="L56">
-        <v>6.3954999999999993</v>
+        <v>6.2999999999999989</v>
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="1">
-        <v>140.922619</v>
-      </c>
-      <c r="B57" s="1">
-        <v>263.88055559999998</v>
+      <c r="A57">
+        <v>12.7</v>
+      </c>
+      <c r="B57">
+        <v>262.3</v>
       </c>
       <c r="E57">
-        <v>262.61190476190433</v>
+        <v>262.5</v>
       </c>
       <c r="F57">
-        <v>16.105555555555515</v>
+        <v>12.5</v>
       </c>
       <c r="H57">
-        <v>29.401</v>
+        <v>15.771000000000001</v>
       </c>
       <c r="I57">
-        <v>17.946000000000002</v>
+        <v>17.991</v>
       </c>
       <c r="K57">
-        <v>41.941999999999993</v>
+        <v>42</v>
       </c>
       <c r="L57">
-        <v>6.847999999999999</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="1">
-        <v>147.672619</v>
-      </c>
-      <c r="B58" s="1">
-        <v>261.49722220000001</v>
+      <c r="A58">
+        <v>20.2</v>
+      </c>
+      <c r="B58">
+        <v>260</v>
       </c>
       <c r="E58">
-        <v>260.36190476190433</v>
+        <v>260</v>
       </c>
       <c r="F58">
-        <v>23.944444444444422</v>
+        <v>20</v>
       </c>
       <c r="H58">
-        <v>30.271999999999998</v>
+        <v>16.821000000000002</v>
       </c>
       <c r="I58">
-        <v>17.96</v>
+        <v>18</v>
       </c>
       <c r="K58">
-        <v>41.954999999999998</v>
+        <v>42</v>
       </c>
       <c r="L58">
-        <v>7.2904999999999989</v>
+        <v>7.2000000000000011</v>
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="1">
-        <v>154.4642857</v>
-      </c>
-      <c r="B59" s="1">
-        <v>259.46111109999998</v>
+      <c r="A59">
+        <v>27.5</v>
+      </c>
+      <c r="B59">
+        <v>257.5</v>
       </c>
       <c r="E59">
-        <v>257.89880952380901</v>
+        <v>257.5</v>
       </c>
       <c r="F59">
-        <v>31.069444444444422</v>
+        <v>27.5</v>
       </c>
       <c r="H59">
-        <v>31.221500000000002</v>
+        <v>17.849999999999998</v>
       </c>
       <c r="I59">
-        <v>17.971499999999999</v>
+        <v>18</v>
       </c>
       <c r="K59">
-        <v>41.97</v>
+        <v>42</v>
       </c>
       <c r="L59">
-        <v>7.7530000000000001</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="1">
-        <v>161.3261905</v>
-      </c>
-      <c r="B60" s="1">
-        <v>257.4277778</v>
+      <c r="A60">
+        <v>35</v>
+      </c>
+      <c r="B60">
+        <v>255</v>
       </c>
       <c r="E60">
-        <v>255.60952380952318</v>
+        <v>255</v>
       </c>
       <c r="F60">
-        <v>39.499999999999964</v>
+        <v>35</v>
       </c>
       <c r="H60">
-        <v>32.228499999999997</v>
+        <v>18.900000000000002</v>
       </c>
       <c r="I60">
-        <v>17.978500000000004</v>
+        <v>18</v>
       </c>
       <c r="K60">
-        <v>41.975000000000001</v>
+        <v>42</v>
       </c>
       <c r="L60">
-        <v>8.1830000000000016</v>
+        <v>8.0999999999999979</v>
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="1">
-        <v>167.5892857</v>
-      </c>
-      <c r="B61" s="1">
-        <v>255.0805556</v>
+      <c r="A61">
+        <v>42.5</v>
+      </c>
+      <c r="B61">
+        <v>252.5</v>
       </c>
       <c r="E61">
-        <v>253.02619047619001</v>
+        <v>252.5</v>
       </c>
       <c r="F61">
-        <v>46.416666666666643</v>
+        <v>42.5</v>
       </c>
       <c r="H61">
-        <v>33.232499999999995</v>
+        <v>19.949999999999996</v>
       </c>
       <c r="I61">
-        <v>17.983499999999999</v>
+        <v>18</v>
       </c>
       <c r="K61">
-        <v>41.988999999999997</v>
+        <v>42</v>
       </c>
       <c r="L61">
-        <v>8.5879999999999992</v>
+        <v>8.5499999999999989</v>
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="1">
-        <v>174.32499999999999</v>
-      </c>
-      <c r="B62" s="1">
-        <v>252.71944439999999</v>
+      <c r="A62">
+        <v>50</v>
+      </c>
+      <c r="B62">
+        <v>250</v>
       </c>
       <c r="E62">
-        <v>250.5797619047616</v>
+        <v>250</v>
       </c>
       <c r="F62">
-        <v>54.124999999999964</v>
+        <v>50</v>
       </c>
       <c r="H62">
-        <v>34.208500000000001</v>
+        <v>21</v>
       </c>
       <c r="I62">
-        <v>17.987000000000002</v>
+        <v>18</v>
       </c>
       <c r="K62">
-        <v>41.988999999999997</v>
+        <v>42</v>
       </c>
       <c r="L62">
-        <v>9.0154999999999994</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="1">
-        <v>180.87261899999999</v>
-      </c>
-      <c r="B63" s="1">
-        <v>250.48611109999999</v>
+      <c r="A63">
+        <v>57.5</v>
+      </c>
+      <c r="B63">
+        <v>247.5</v>
       </c>
       <c r="E63">
-        <v>248.04166666666629</v>
+        <v>247.5</v>
       </c>
       <c r="F63">
-        <v>61.291666666666643</v>
+        <v>57.5</v>
       </c>
       <c r="H63">
-        <v>35.070999999999998</v>
+        <v>22.050000000000004</v>
       </c>
       <c r="I63">
-        <v>17.9895</v>
+        <v>18</v>
       </c>
       <c r="K63">
-        <v>41.993499999999997</v>
+        <v>42</v>
       </c>
       <c r="L63">
-        <v>9.4754999999999985</v>
+        <v>9.4500000000000011</v>
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="1">
-        <v>187.46071430000001</v>
-      </c>
-      <c r="B64" s="1">
-        <v>247.95833329999999</v>
+      <c r="A64">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>245</v>
       </c>
       <c r="E64">
-        <v>245.49404761904719</v>
+        <v>245</v>
       </c>
       <c r="F64">
-        <v>68.458333333333286</v>
+        <v>65</v>
       </c>
       <c r="H64">
-        <v>35.972000000000001</v>
+        <v>23.099999999999998</v>
       </c>
       <c r="I64">
-        <v>17.9895</v>
+        <v>18</v>
       </c>
       <c r="K64">
         <v>42</v>
       </c>
       <c r="L64">
-        <v>9.8930000000000007</v>
+        <v>9.9000000000000021</v>
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="1">
-        <v>193.827381</v>
-      </c>
-      <c r="B65" s="1">
-        <v>245.51388890000001</v>
+      <c r="A65">
+        <v>72.5</v>
+      </c>
+      <c r="B65">
+        <v>242.5</v>
       </c>
       <c r="E65">
-        <v>242.99999999999937</v>
+        <v>242.5</v>
       </c>
       <c r="F65">
-        <v>75.999999999999972</v>
+        <v>72.5</v>
       </c>
       <c r="H65">
-        <v>36.807500000000005</v>
+        <v>24.150000000000002</v>
       </c>
       <c r="I65">
-        <v>17.9895</v>
+        <v>18</v>
       </c>
       <c r="K65">
         <v>42</v>
       </c>
       <c r="L65">
-        <v>10.348000000000001</v>
+        <v>10.349999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="1">
-        <v>199.5488095</v>
-      </c>
-      <c r="B66" s="1">
-        <v>243.04166670000001</v>
+      <c r="A66">
+        <v>80</v>
+      </c>
+      <c r="B66">
+        <v>240</v>
       </c>
       <c r="E66">
-        <v>240.44642857142821</v>
+        <v>240</v>
       </c>
       <c r="F66">
-        <v>83.124999999999972</v>
+        <v>80</v>
       </c>
       <c r="H66">
-        <v>37.596999999999994</v>
+        <v>25.199999999999996</v>
       </c>
       <c r="I66">
-        <v>17.9895</v>
+        <v>18</v>
       </c>
       <c r="K66">
         <v>42</v>
       </c>
       <c r="L66">
-        <v>10.788</v>
+        <v>10.799999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="1">
-        <v>204.32499999999999</v>
-      </c>
-      <c r="B67" s="1">
-        <v>240.31944440000001</v>
+      <c r="A67">
+        <v>87.5</v>
+      </c>
+      <c r="B67">
+        <v>237.5</v>
       </c>
       <c r="E67">
-        <v>237.85119047618986</v>
+        <v>237.5</v>
       </c>
       <c r="F67">
-        <v>89.958333333333258</v>
+        <v>87.5</v>
       </c>
       <c r="H67">
-        <v>38.336500000000001</v>
+        <v>26.25</v>
       </c>
       <c r="I67">
-        <v>17.992000000000001</v>
+        <v>18</v>
       </c>
       <c r="K67">
         <v>42</v>
       </c>
       <c r="L67">
-        <v>11.2775</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="1">
-        <v>208.22738100000001</v>
-      </c>
-      <c r="B68" s="1">
-        <v>237.8472222</v>
+      <c r="A68">
+        <v>95</v>
+      </c>
+      <c r="B68">
+        <v>235</v>
       </c>
       <c r="E68">
-        <v>235.3333333333328</v>
+        <v>235</v>
       </c>
       <c r="F68">
-        <v>97.333333333333172</v>
+        <v>95</v>
       </c>
       <c r="H68">
-        <v>39.000999999999998</v>
+        <v>27.300000000000004</v>
       </c>
       <c r="I68">
-        <v>17.999500000000001</v>
+        <v>18</v>
       </c>
       <c r="K68">
         <v>42</v>
       </c>
       <c r="L68">
-        <v>11.7</v>
+        <v>11.700000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="1">
-        <v>211.2142857</v>
-      </c>
-      <c r="B69" s="1">
-        <v>235.16666670000001</v>
+      <c r="A69">
+        <v>102.5</v>
+      </c>
+      <c r="B69">
+        <v>232.5</v>
       </c>
       <c r="E69">
-        <v>232.75595238095178</v>
+        <v>232.5</v>
       </c>
       <c r="F69">
-        <v>104.29166666666626</v>
+        <v>102.5</v>
       </c>
       <c r="H69">
-        <v>39.622499999999995</v>
+        <v>28.35</v>
       </c>
       <c r="I69">
         <v>18</v>
@@ -4962,24 +4966,24 @@
         <v>42</v>
       </c>
       <c r="L69">
-        <v>12.1625</v>
+        <v>12.150000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="1">
-        <v>213.26904759999999</v>
-      </c>
-      <c r="B70" s="1">
-        <v>232.58333329999999</v>
+      <c r="A70">
+        <v>110</v>
+      </c>
+      <c r="B70">
+        <v>230</v>
       </c>
       <c r="E70">
-        <v>230.27976190476161</v>
+        <v>230</v>
       </c>
       <c r="F70">
-        <v>111.95833333333299</v>
+        <v>110</v>
       </c>
       <c r="H70">
-        <v>40.154000000000003</v>
+        <v>29.4</v>
       </c>
       <c r="I70">
         <v>18</v>
@@ -4988,24 +4992,24 @@
         <v>42</v>
       </c>
       <c r="L70">
-        <v>12.595000000000002</v>
+        <v>12.599999999999998</v>
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="1">
-        <v>214.6821429</v>
-      </c>
-      <c r="B71" s="1">
-        <v>229.70833329999999</v>
+      <c r="A71">
+        <v>117.5</v>
+      </c>
+      <c r="B71">
+        <v>227.5</v>
       </c>
       <c r="E71">
-        <v>227.72023809523748</v>
+        <v>227.5</v>
       </c>
       <c r="F71">
-        <v>119.04166666666643</v>
+        <v>117.5</v>
       </c>
       <c r="H71">
-        <v>40.609500000000011</v>
+        <v>30.449999999999996</v>
       </c>
       <c r="I71">
         <v>18</v>
@@ -5014,24 +5018,24 @@
         <v>42</v>
       </c>
       <c r="L71">
-        <v>13.0725</v>
+        <v>13.05</v>
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="1">
-        <v>215.5845238</v>
-      </c>
-      <c r="B72" s="1">
-        <v>227.06944440000001</v>
+      <c r="A72">
+        <v>125</v>
+      </c>
+      <c r="B72">
+        <v>225</v>
       </c>
       <c r="E72">
-        <v>225.1309523809519</v>
+        <v>225</v>
       </c>
       <c r="F72">
-        <v>125.9166666666664</v>
+        <v>125</v>
       </c>
       <c r="H72">
-        <v>40.990499999999997</v>
+        <v>31.5</v>
       </c>
       <c r="I72">
         <v>18</v>
@@ -5040,24 +5044,24 @@
         <v>42</v>
       </c>
       <c r="L72">
-        <v>13.520000000000001</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="1">
-        <v>215.6607143</v>
-      </c>
-      <c r="B73" s="1">
-        <v>224.29166670000001</v>
+      <c r="A73">
+        <v>132.5</v>
+      </c>
+      <c r="B73">
+        <v>222.5</v>
       </c>
       <c r="E73">
-        <v>222.48809523809467</v>
+        <v>222.5</v>
       </c>
       <c r="F73">
-        <v>132.4166666666664</v>
+        <v>132.5</v>
       </c>
       <c r="H73">
-        <v>41.283000000000001</v>
+        <v>32.550000000000004</v>
       </c>
       <c r="I73">
         <v>18</v>
@@ -5066,24 +5070,24 @@
         <v>42</v>
       </c>
       <c r="L73">
-        <v>13.9625</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="1">
-        <v>215.1369048</v>
-      </c>
-      <c r="B74" s="1">
-        <v>221.51388890000001</v>
+      <c r="A74">
+        <v>140</v>
+      </c>
+      <c r="B74">
+        <v>220</v>
       </c>
       <c r="E74">
-        <v>219.98214285714229</v>
+        <v>220</v>
       </c>
       <c r="F74">
-        <v>139.87499999999983</v>
+        <v>140</v>
       </c>
       <c r="H74">
-        <v>41.541999999999994</v>
+        <v>33.600000000000009</v>
       </c>
       <c r="I74">
         <v>18</v>
@@ -5092,24 +5096,24 @@
         <v>42</v>
       </c>
       <c r="L74">
-        <v>14.352500000000001</v>
+        <v>14.400000000000002</v>
       </c>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="1">
-        <v>214.0571429</v>
-      </c>
-      <c r="B75" s="1">
-        <v>218.7777778</v>
+      <c r="A75">
+        <v>147.5</v>
+      </c>
+      <c r="B75">
+        <v>217.5</v>
       </c>
       <c r="E75">
-        <v>217.49404761904719</v>
+        <v>217.5</v>
       </c>
       <c r="F75">
-        <v>147.458333333333</v>
+        <v>147.5</v>
       </c>
       <c r="H75">
-        <v>41.738</v>
+        <v>34.649999999999991</v>
       </c>
       <c r="I75">
         <v>18</v>
@@ -5118,24 +5122,24 @@
         <v>42</v>
       </c>
       <c r="L75">
-        <v>14.807500000000001</v>
+        <v>14.849999999999998</v>
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="1">
-        <v>212.5607143</v>
-      </c>
-      <c r="B76" s="1">
-        <v>215.79166670000001</v>
+      <c r="A76">
+        <v>155</v>
+      </c>
+      <c r="B76">
+        <v>215</v>
       </c>
       <c r="E76">
-        <v>214.98809523809473</v>
+        <v>215</v>
       </c>
       <c r="F76">
-        <v>154.91666666666632</v>
+        <v>155</v>
       </c>
       <c r="H76">
-        <v>41.85</v>
+        <v>35.699999999999996</v>
       </c>
       <c r="I76">
         <v>18</v>
@@ -5144,24 +5148,24 @@
         <v>42</v>
       </c>
       <c r="L76">
-        <v>15.2125</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="1">
-        <v>211.0559524</v>
-      </c>
-      <c r="B77" s="1">
-        <v>213.06944440000001</v>
+      <c r="A77">
+        <v>162.5</v>
+      </c>
+      <c r="B77">
+        <v>212.5</v>
       </c>
       <c r="E77">
-        <v>212.45238095238051</v>
+        <v>212.5</v>
       </c>
       <c r="F77">
-        <v>162.16666666666643</v>
+        <v>162.5</v>
       </c>
       <c r="H77">
-        <v>41.920500000000004</v>
+        <v>36.75</v>
       </c>
       <c r="I77">
         <v>18</v>
@@ -5170,24 +5174,24 @@
         <v>42</v>
       </c>
       <c r="L77">
-        <v>15.65</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="1">
-        <v>209.26428569999999</v>
-      </c>
-      <c r="B78" s="1">
-        <v>210.36111109999999</v>
+      <c r="A78">
+        <v>170</v>
+      </c>
+      <c r="B78">
+        <v>210</v>
       </c>
       <c r="E78">
-        <v>209.90476190476139</v>
+        <v>210</v>
       </c>
       <c r="F78">
-        <v>169.33333333333312</v>
+        <v>170</v>
       </c>
       <c r="H78">
-        <v>41.953499999999998</v>
+        <v>37.800000000000004</v>
       </c>
       <c r="I78">
         <v>18</v>
@@ -5196,24 +5200,24 @@
         <v>42</v>
       </c>
       <c r="L78">
-        <v>16.087499999999999</v>
+        <v>16.199999999999996</v>
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="1">
-        <v>207.23928570000001</v>
-      </c>
-      <c r="B79" s="1">
-        <v>207.76388890000001</v>
+      <c r="A79">
+        <v>177.5</v>
+      </c>
+      <c r="B79">
+        <v>207.5</v>
       </c>
       <c r="E79">
-        <v>207.42857142857102</v>
+        <v>207.5</v>
       </c>
       <c r="F79">
-        <v>176.99999999999963</v>
+        <v>177.5</v>
       </c>
       <c r="H79">
-        <v>41.991500000000002</v>
+        <v>38.850000000000009</v>
       </c>
       <c r="I79">
         <v>18</v>
@@ -5222,24 +5226,24 @@
         <v>42</v>
       </c>
       <c r="L79">
-        <v>16.574999999999999</v>
+        <v>16.650000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="1">
-        <v>204.9880952</v>
-      </c>
-      <c r="B80" s="1">
-        <v>205.0277778</v>
+      <c r="A80">
+        <v>185</v>
+      </c>
+      <c r="B80">
+        <v>205</v>
       </c>
       <c r="E80">
-        <v>204.8333333333328</v>
+        <v>205</v>
       </c>
       <c r="F80">
-        <v>183.833333333333</v>
+        <v>185</v>
       </c>
       <c r="H80">
-        <v>42</v>
+        <v>39.899999999999991</v>
       </c>
       <c r="I80">
         <v>18</v>
@@ -5248,24 +5252,24 @@
         <v>42</v>
       </c>
       <c r="L80">
-        <v>17.0425</v>
+        <v>17.099999999999998</v>
       </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="1">
-        <v>202.50595240000001</v>
-      </c>
-      <c r="B81" s="1">
-        <v>202.48611109999999</v>
+      <c r="A81">
+        <v>192.5</v>
+      </c>
+      <c r="B81">
+        <v>202.5</v>
       </c>
       <c r="E81">
-        <v>202.30357142857102</v>
+        <v>202.5</v>
       </c>
       <c r="F81">
-        <v>191.12499999999952</v>
+        <v>192.5</v>
       </c>
       <c r="H81">
-        <v>42</v>
+        <v>40.949999999999996</v>
       </c>
       <c r="I81">
         <v>18</v>
@@ -5274,14 +5278,14 @@
         <v>42</v>
       </c>
       <c r="L81">
-        <v>17.532499999999999</v>
+        <v>17.550000000000004</v>
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="1">
+      <c r="A82">
         <v>200</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82">
         <v>200</v>
       </c>
       <c r="E82">
